--- a/data/raw/raw_boms.xlsx
+++ b/data/raw/raw_boms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6127F36B-5301-4A38-8AF4-929543471649}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA546D53-7A18-48C1-BBE9-E90F22590080}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="191">
   <si>
     <t>Building Type</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Exterior Walls</t>
   </si>
   <si>
-    <t>Curtain wall, steel spandrel</t>
-  </si>
-  <si>
     <t>Glazing</t>
   </si>
   <si>
@@ -260,18 +257,12 @@
     <t>Paint, interior acrylic latex</t>
   </si>
   <si>
-    <t>Curtain wall, alu spandrel</t>
-  </si>
-  <si>
     <t>Aluminum Curtain Wall System</t>
   </si>
   <si>
     <t>Aluminum curtain wall system, YKK AP - EPD</t>
   </si>
   <si>
-    <t>MV - Brick</t>
-  </si>
-  <si>
     <t>Brick</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
     <t>Gypsum wall board</t>
   </si>
   <si>
-    <t>MV - Granite</t>
-  </si>
-  <si>
     <t>4" granite veneer</t>
   </si>
   <si>
@@ -332,9 +320,6 @@
     <t>Mortar type S</t>
   </si>
   <si>
-    <t>Insulated Metal Panel</t>
-  </si>
-  <si>
     <t>Exterior finish + insulation</t>
   </si>
   <si>
@@ -377,9 +362,6 @@
     <t>AVB Membrane</t>
   </si>
   <si>
-    <t>Rainscreen, GFRC</t>
-  </si>
-  <si>
     <t>Glass Fiber Reinforced Concrete (GFRC) Panel</t>
   </si>
   <si>
@@ -392,9 +374,6 @@
     <t>4.5" Mineral Wool insulation</t>
   </si>
   <si>
-    <t>Rainscreen, Thin brick</t>
-  </si>
-  <si>
     <t>3/4" Brick</t>
   </si>
   <si>
@@ -425,9 +404,6 @@
     <t>3.5" Mineral Wool insulation</t>
   </si>
   <si>
-    <t>Rainscreen, Wood</t>
-  </si>
-  <si>
     <t>6" x 1' Tulipwood/Poplar Lumber</t>
   </si>
   <si>
@@ -446,9 +422,6 @@
     <t>Aluminum extrusion, AEC - EPD</t>
   </si>
   <si>
-    <t>Rainscreen, Formed Steel Panel</t>
-  </si>
-  <si>
     <t>Formed Steel Sheet</t>
   </si>
   <si>
@@ -491,9 +464,6 @@
     <t>Viracon triple pane IGU, 1-5/16" Clear Insulating Low-E Laminated  Glass Unit with a ½” VTS Airspace  and Both Lites Heat Treated</t>
   </si>
   <si>
-    <t>Operable window</t>
-  </si>
-  <si>
     <t>21-02 30 10</t>
   </si>
   <si>
@@ -618,6 +588,15 @@
   </si>
   <si>
     <t>Glue laminated timber (Glulam), AWC - EPD</t>
+  </si>
+  <si>
+    <t>Curtain wall: alu spandrel</t>
+  </si>
+  <si>
+    <t>Glazing: double pane IGU</t>
+  </si>
+  <si>
+    <t>Glazing: triple pane IGU</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1164,7 +1143,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
@@ -1202,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
@@ -1240,7 +1219,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -1278,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -1316,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -1354,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -1392,7 +1371,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -1430,7 +1409,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>34</v>
@@ -1439,10 +1418,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K9" s="10">
         <v>132267</v>
@@ -1468,7 +1447,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>34</v>
@@ -1506,7 +1485,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>39</v>
@@ -1518,7 +1497,7 @@
         <v>41</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K11" s="10">
         <v>217730</v>
@@ -1544,7 +1523,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>42</v>
@@ -1556,7 +1535,7 @@
         <v>41</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K12" s="10">
         <v>89824</v>
@@ -1582,7 +1561,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>43</v>
@@ -1594,7 +1573,7 @@
         <v>41</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K13" s="10">
         <v>44674</v>
@@ -1620,7 +1599,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>44</v>
@@ -1658,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>44</v>
@@ -1696,7 +1675,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>17</v>
@@ -1734,7 +1713,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>17</v>
@@ -1772,7 +1751,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>24</v>
@@ -1810,7 +1789,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>24</v>
@@ -1848,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>26</v>
@@ -1886,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>26</v>
@@ -1924,7 +1903,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>34</v>
@@ -1962,7 +1941,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>34</v>
@@ -2000,7 +1979,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>43</v>
@@ -2038,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>43</v>
@@ -2076,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>44</v>
@@ -2114,7 +2093,7 @@
         <v>33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>44</v>
@@ -2152,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>17</v>
@@ -2190,7 +2169,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>17</v>
@@ -2228,7 +2207,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>24</v>
@@ -2266,7 +2245,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>24</v>
@@ -2304,7 +2283,7 @@
         <v>16</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>26</v>
@@ -2342,7 +2321,7 @@
         <v>16</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>26</v>
@@ -2380,7 +2359,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>34</v>
@@ -2418,7 +2397,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>34</v>
@@ -2456,7 +2435,7 @@
         <v>33</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>34</v>
@@ -2494,7 +2473,7 @@
         <v>33</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>39</v>
@@ -2506,7 +2485,7 @@
         <v>55</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K37" s="10">
         <v>54158</v>
@@ -2532,7 +2511,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>42</v>
@@ -2544,7 +2523,7 @@
         <v>55</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K38" s="10">
         <v>227907</v>
@@ -2570,7 +2549,7 @@
         <v>33</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>43</v>
@@ -2582,7 +2561,7 @@
         <v>55</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K39" s="10">
         <v>136704</v>
@@ -2608,7 +2587,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>44</v>
@@ -2646,7 +2625,7 @@
         <v>33</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>44</v>
@@ -2746,25 +2725,25 @@
         <v>58</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="K2" s="27">
         <v>31445</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2784,25 +2763,25 @@
         <v>58</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="J3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="27">
         <v>479</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2822,25 +2801,25 @@
         <v>58</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K4" s="27">
         <v>10981</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2860,25 +2839,25 @@
         <v>58</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="K5" s="27">
         <v>14975</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2898,25 +2877,25 @@
         <v>58</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H6" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="K6" s="27">
         <v>30644</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2936,25 +2915,25 @@
         <v>58</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K7" s="27">
         <v>509</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2974,25 +2953,25 @@
         <v>58</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" s="27">
         <v>10917</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3012,25 +2991,25 @@
         <v>58</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="J9" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K9" s="27">
         <v>10806</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3050,25 +3029,25 @@
         <v>58</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="J10" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="K10" s="27">
         <v>14975</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3088,25 +3067,25 @@
         <v>58</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H11" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="K11" s="27">
         <v>30644</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3126,25 +3105,25 @@
         <v>58</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K12" s="27">
         <v>509</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3164,25 +3143,25 @@
         <v>58</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K13" s="27">
         <v>360492</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3202,25 +3181,25 @@
         <v>58</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K14" s="27">
         <v>57846</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3240,25 +3219,25 @@
         <v>58</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K15" s="27">
         <v>12117</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3278,25 +3257,25 @@
         <v>58</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" s="27">
         <v>9412</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3316,25 +3295,25 @@
         <v>58</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K17" s="27">
         <v>6719</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3354,25 +3333,25 @@
         <v>58</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K18" s="27">
         <v>30261</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3392,25 +3371,25 @@
         <v>58</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" s="27">
         <v>14975</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3430,25 +3409,25 @@
         <v>58</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="27">
         <v>30644</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3468,25 +3447,25 @@
         <v>58</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K21" s="27">
         <v>509</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3506,25 +3485,25 @@
         <v>58</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K22" s="27">
         <v>624440</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3544,25 +3523,25 @@
         <v>58</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K23" s="27">
         <v>22658</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3582,25 +3561,25 @@
         <v>58</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K24" s="27">
         <v>12117</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3620,25 +3599,25 @@
         <v>58</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" s="27">
         <v>9412</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3658,25 +3637,25 @@
         <v>58</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K26" s="27">
         <v>6719</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3696,25 +3675,25 @@
         <v>58</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K27" s="27">
         <v>30261</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3734,25 +3713,25 @@
         <v>58</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K28" s="27">
         <v>14975</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3772,25 +3751,25 @@
         <v>58</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K29" s="27">
         <v>30644</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3810,25 +3789,25 @@
         <v>58</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K30" s="27">
         <v>509</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3848,25 +3827,25 @@
         <v>58</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K31" s="27">
         <v>29658</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3886,25 +3865,25 @@
         <v>58</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H32" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>66</v>
       </c>
       <c r="K32" s="27">
         <v>753</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3924,25 +3903,25 @@
         <v>58</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K33" s="27">
         <v>2077</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3962,25 +3941,25 @@
         <v>58</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K34" s="27">
         <v>14975</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4000,25 +3979,25 @@
         <v>58</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35" s="27">
         <v>30644</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4038,25 +4017,25 @@
         <v>58</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I36" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K36" s="27">
         <v>509</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4076,25 +4055,25 @@
         <v>58</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K37" s="27">
         <v>1564</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4114,25 +4093,25 @@
         <v>58</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G38" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>115</v>
       </c>
       <c r="K38" s="27">
         <v>3969</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4152,25 +4131,25 @@
         <v>58</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K39" s="27">
         <v>6719</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4190,25 +4169,25 @@
         <v>58</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K40" s="27">
         <v>30261</v>
       </c>
       <c r="L40" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4228,25 +4207,25 @@
         <v>58</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H41" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="J41" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="K41" s="27">
         <v>14975</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4266,25 +4245,25 @@
         <v>58</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="J42" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="K42" s="27">
         <v>30644</v>
       </c>
       <c r="L42" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4304,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I43" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K43" s="27">
         <v>509</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4342,25 +4321,25 @@
         <v>58</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K44" s="27">
         <v>170263</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4380,25 +4359,25 @@
         <v>58</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K45" s="27">
         <v>97036</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4418,25 +4397,25 @@
         <v>58</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46" s="27">
         <v>10632</v>
       </c>
       <c r="L46" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4456,25 +4435,25 @@
         <v>58</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K47" s="27">
         <v>6719</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4494,25 +4473,25 @@
         <v>58</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K48" s="27">
         <v>30261</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4532,25 +4511,25 @@
         <v>58</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H49" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I49" s="25" t="s">
+      <c r="J49" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="K49" s="27">
         <v>14975</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4570,25 +4549,25 @@
         <v>58</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H50" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="J50" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="K50" s="27">
         <v>30644</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4608,25 +4587,25 @@
         <v>58</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I51" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K51" s="27">
         <v>509</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4646,25 +4625,25 @@
         <v>58</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K52" s="27">
         <v>74168</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4684,25 +4663,25 @@
         <v>58</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K53" s="27">
         <v>11329</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4722,25 +4701,25 @@
         <v>58</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K54" s="27">
         <v>425</v>
       </c>
       <c r="L54" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4760,25 +4739,25 @@
         <v>58</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J55" s="41" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K55" s="27">
         <v>16759</v>
       </c>
       <c r="L55" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4798,25 +4777,25 @@
         <v>58</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K56" s="27">
         <v>4039</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4836,25 +4815,25 @@
         <v>58</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K57" s="27">
         <v>96</v>
       </c>
       <c r="L57" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4874,25 +4853,25 @@
         <v>58</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58" s="27">
         <v>8366</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4912,25 +4891,25 @@
         <v>58</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K59" s="27">
         <v>6719</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4950,25 +4929,25 @@
         <v>58</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K60" s="27">
         <v>30261</v>
       </c>
       <c r="L60" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4988,25 +4967,25 @@
         <v>58</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H61" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I61" s="25" t="s">
+      <c r="J61" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="J61" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="K61" s="27">
         <v>14975</v>
       </c>
       <c r="L61" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -5026,25 +5005,25 @@
         <v>58</v>
       </c>
       <c r="F62" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H62" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="25" t="s">
+      <c r="J62" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="K62" s="27">
         <v>30644</v>
       </c>
       <c r="L62" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -5064,25 +5043,25 @@
         <v>58</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I63" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K63" s="27">
         <v>509</v>
       </c>
       <c r="L63" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -5102,25 +5081,25 @@
         <v>58</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K64" s="27">
         <v>25945</v>
       </c>
       <c r="L64" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -5140,25 +5119,25 @@
         <v>58</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K65" s="27">
         <v>208</v>
       </c>
       <c r="L65" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -5178,25 +5157,25 @@
         <v>58</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K66" s="27">
         <v>2717</v>
       </c>
       <c r="L66" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -5216,25 +5195,25 @@
         <v>58</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K67" s="27">
         <v>4039</v>
       </c>
       <c r="L67" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -5254,25 +5233,25 @@
         <v>58</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K68" s="27">
         <v>96</v>
       </c>
       <c r="L68" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -5292,25 +5271,25 @@
         <v>58</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K69" s="27">
         <v>8366</v>
       </c>
       <c r="L69" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -5330,25 +5309,25 @@
         <v>58</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K70" s="27">
         <v>6719</v>
       </c>
       <c r="L70" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -5368,25 +5347,25 @@
         <v>58</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K71" s="27">
         <v>30261</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -5406,25 +5385,25 @@
         <v>58</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H72" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I72" s="25" t="s">
+      <c r="J72" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="K72" s="27">
         <v>14975</v>
       </c>
       <c r="L72" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -5444,25 +5423,25 @@
         <v>58</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H73" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I73" s="25" t="s">
+      <c r="J73" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="K73" s="27">
         <v>30644</v>
       </c>
       <c r="L73" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -5482,25 +5461,25 @@
         <v>58</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I74" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J74" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K74" s="27">
         <v>509</v>
       </c>
       <c r="L74" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -5520,25 +5499,25 @@
         <v>58</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J75" s="25" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K75" s="27">
         <v>11388</v>
       </c>
       <c r="L75" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5558,25 +5537,25 @@
         <v>58</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K76" s="27">
         <v>661</v>
       </c>
       <c r="L76" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5596,25 +5575,25 @@
         <v>58</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K77" s="27">
         <v>323</v>
       </c>
       <c r="L77" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5634,25 +5613,25 @@
         <v>58</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K78" s="27">
         <v>4039</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5672,25 +5651,25 @@
         <v>58</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K79" s="27">
         <v>96</v>
       </c>
       <c r="L79" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5710,25 +5689,25 @@
         <v>58</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K80" s="27">
         <v>8366</v>
       </c>
       <c r="L80" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5748,25 +5727,25 @@
         <v>58</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J81" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K81" s="27">
         <v>6719</v>
       </c>
       <c r="L81" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5786,25 +5765,25 @@
         <v>58</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J82" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K82" s="27">
         <v>30261</v>
       </c>
       <c r="L82" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5824,25 +5803,25 @@
         <v>58</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H83" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I83" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I83" s="25" t="s">
+      <c r="J83" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="K83" s="27">
         <v>14975</v>
       </c>
       <c r="L83" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5862,25 +5841,25 @@
         <v>58</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H84" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I84" s="25" t="s">
+      <c r="J84" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="K84" s="27">
         <v>30644</v>
       </c>
       <c r="L84" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5900,25 +5879,25 @@
         <v>58</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I85" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J85" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="K85" s="27">
         <v>509</v>
       </c>
       <c r="L85" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -8693,7 +8672,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>31</v>
@@ -8702,28 +8681,28 @@
         <v>57</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K2" s="27">
         <v>35343</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75">
@@ -8731,7 +8710,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>31</v>
@@ -8740,28 +8719,28 @@
         <v>57</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K3" s="27">
         <v>54275</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75">
@@ -11544,31 +11523,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K2" s="27">
         <v>10829</v>
@@ -11579,31 +11558,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="K3" s="27">
         <v>9755</v>
@@ -14319,10 +14298,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855F4CF-4650-45D4-87F0-B29B2A97A803}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14335,7 +14314,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14404,7 +14383,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -14412,7 +14391,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <v>35</v>
@@ -14420,7 +14399,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="B12">
         <v>35</v>
@@ -14428,7 +14407,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="B13">
         <v>35</v>
@@ -14436,7 +14415,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>35</v>
@@ -14444,7 +14423,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B15">
         <v>35</v>
@@ -14452,7 +14431,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B16">
         <v>35</v>
@@ -14460,7 +14439,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B17">
         <v>35</v>
@@ -14468,7 +14447,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>35</v>
@@ -14476,7 +14455,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="B19">
         <v>35</v>
@@ -14484,7 +14463,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B20">
         <v>30</v>
@@ -14492,25 +14471,17 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="B21">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>155</v>
+      <c r="A22" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="B22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23">
         <v>20</v>
       </c>
     </row>

--- a/data/raw/raw_boms.xlsx
+++ b/data/raw/raw_boms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA546D53-7A18-48C1-BBE9-E90F22590080}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5A8D98-13CA-4F57-9805-EF6D0E29D53E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="189">
   <si>
     <t>Building Type</t>
   </si>
@@ -446,16 +446,10 @@
     <t>Exterior Windows</t>
   </si>
   <si>
-    <t>Glazing, double pane IGU</t>
-  </si>
-  <si>
     <t>Double pane IGU</t>
   </si>
   <si>
     <t>Viracon IGU, 1” Clear Insulating Low-E Glass Unit with a  ½” VTS Airspace and Both Lites Fully Tempered  and Heat Soak Tested</t>
-  </si>
-  <si>
-    <t>Glazing, triple pane IGU</t>
   </si>
   <si>
     <t>Triple pane IGU</t>
@@ -1143,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
@@ -1181,7 +1175,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
@@ -1219,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -1257,7 +1251,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -1295,7 +1289,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -1333,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>26</v>
@@ -1371,7 +1365,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -1409,7 +1403,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>34</v>
@@ -1418,10 +1412,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K9" s="10">
         <v>132267</v>
@@ -1447,7 +1441,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>34</v>
@@ -1485,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>39</v>
@@ -1497,7 +1491,7 @@
         <v>41</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K11" s="10">
         <v>217730</v>
@@ -1523,7 +1517,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>42</v>
@@ -1535,7 +1529,7 @@
         <v>41</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K12" s="10">
         <v>89824</v>
@@ -1561,7 +1555,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>43</v>
@@ -1573,7 +1567,7 @@
         <v>41</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K13" s="10">
         <v>44674</v>
@@ -1599,7 +1593,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>44</v>
@@ -1637,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>44</v>
@@ -1675,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>17</v>
@@ -1713,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>17</v>
@@ -1751,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>24</v>
@@ -1789,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>24</v>
@@ -1827,7 +1821,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>26</v>
@@ -1865,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>26</v>
@@ -1903,7 +1897,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>34</v>
@@ -1941,7 +1935,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>34</v>
@@ -1979,7 +1973,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>43</v>
@@ -2017,7 +2011,7 @@
         <v>33</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>43</v>
@@ -2055,7 +2049,7 @@
         <v>33</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>44</v>
@@ -2093,7 +2087,7 @@
         <v>33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>44</v>
@@ -2131,7 +2125,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>17</v>
@@ -2169,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>17</v>
@@ -2207,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>24</v>
@@ -2245,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>24</v>
@@ -2283,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>26</v>
@@ -2321,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>26</v>
@@ -2359,7 +2353,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>34</v>
@@ -2397,7 +2391,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>34</v>
@@ -2435,7 +2429,7 @@
         <v>33</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>34</v>
@@ -2473,7 +2467,7 @@
         <v>33</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>39</v>
@@ -2485,7 +2479,7 @@
         <v>55</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K37" s="10">
         <v>54158</v>
@@ -2511,7 +2505,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>42</v>
@@ -2523,7 +2517,7 @@
         <v>55</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K38" s="10">
         <v>227907</v>
@@ -2549,7 +2543,7 @@
         <v>33</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>43</v>
@@ -2561,7 +2555,7 @@
         <v>55</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K39" s="10">
         <v>136704</v>
@@ -2587,7 +2581,7 @@
         <v>33</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>44</v>
@@ -2625,7 +2619,7 @@
         <v>33</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>44</v>
@@ -2725,10 +2719,10 @@
         <v>58</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>61</v>
@@ -2763,10 +2757,10 @@
         <v>58</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>64</v>
@@ -2801,10 +2795,10 @@
         <v>58</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>66</v>
@@ -2839,10 +2833,10 @@
         <v>58</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>69</v>
@@ -2877,10 +2871,10 @@
         <v>58</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>72</v>
@@ -2915,10 +2909,10 @@
         <v>58</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>72</v>
@@ -2953,10 +2947,10 @@
         <v>58</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>61</v>
@@ -2991,10 +2985,10 @@
         <v>58</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>66</v>
@@ -3029,10 +3023,10 @@
         <v>58</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>69</v>
@@ -3067,10 +3061,10 @@
         <v>58</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>72</v>
@@ -3105,10 +3099,10 @@
         <v>58</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>72</v>
@@ -3143,10 +3137,10 @@
         <v>58</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>64</v>
@@ -3181,10 +3175,10 @@
         <v>58</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>64</v>
@@ -3219,10 +3213,10 @@
         <v>58</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>83</v>
@@ -3257,10 +3251,10 @@
         <v>58</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>66</v>
@@ -3295,10 +3289,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>87</v>
@@ -3333,10 +3327,10 @@
         <v>58</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>69</v>
@@ -3371,10 +3365,10 @@
         <v>58</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>69</v>
@@ -3409,10 +3403,10 @@
         <v>58</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>72</v>
@@ -3447,10 +3441,10 @@
         <v>58</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>72</v>
@@ -3485,10 +3479,10 @@
         <v>58</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>64</v>
@@ -3523,10 +3517,10 @@
         <v>58</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>64</v>
@@ -3561,10 +3555,10 @@
         <v>58</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>83</v>
@@ -3599,10 +3593,10 @@
         <v>58</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>66</v>
@@ -3637,10 +3631,10 @@
         <v>58</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>87</v>
@@ -3675,10 +3669,10 @@
         <v>58</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>69</v>
@@ -3713,10 +3707,10 @@
         <v>58</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>69</v>
@@ -3751,10 +3745,10 @@
         <v>58</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>72</v>
@@ -3789,10 +3783,10 @@
         <v>58</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>72</v>
@@ -3827,10 +3821,10 @@
         <v>58</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>98</v>
@@ -3839,7 +3833,7 @@
         <v>99</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K31" s="27">
         <v>29658</v>
@@ -3865,10 +3859,10 @@
         <v>58</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>64</v>
@@ -3903,10 +3897,10 @@
         <v>58</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>83</v>
@@ -3941,10 +3935,10 @@
         <v>58</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H34" s="25" t="s">
         <v>69</v>
@@ -3979,10 +3973,10 @@
         <v>58</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>72</v>
@@ -4017,10 +4011,10 @@
         <v>58</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>72</v>
@@ -4055,7 +4049,7 @@
         <v>58</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>105</v>
@@ -4093,7 +4087,7 @@
         <v>58</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>105</v>
@@ -4131,7 +4125,7 @@
         <v>58</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>105</v>
@@ -4169,7 +4163,7 @@
         <v>58</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>105</v>
@@ -4207,7 +4201,7 @@
         <v>58</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>105</v>
@@ -4245,7 +4239,7 @@
         <v>58</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>105</v>
@@ -4283,7 +4277,7 @@
         <v>58</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>105</v>
@@ -4321,10 +4315,10 @@
         <v>58</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>64</v>
@@ -4359,10 +4353,10 @@
         <v>58</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H45" s="25" t="s">
         <v>83</v>
@@ -4397,10 +4391,10 @@
         <v>58</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>66</v>
@@ -4435,10 +4429,10 @@
         <v>58</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>87</v>
@@ -4473,10 +4467,10 @@
         <v>58</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H48" s="25" t="s">
         <v>69</v>
@@ -4511,10 +4505,10 @@
         <v>58</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H49" s="25" t="s">
         <v>69</v>
@@ -4549,10 +4543,10 @@
         <v>58</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>72</v>
@@ -4587,10 +4581,10 @@
         <v>58</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>72</v>
@@ -4625,10 +4619,10 @@
         <v>58</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>64</v>
@@ -4663,10 +4657,10 @@
         <v>58</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H53" s="25" t="s">
         <v>64</v>
@@ -4701,10 +4695,10 @@
         <v>58</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>83</v>
@@ -4739,10 +4733,10 @@
         <v>58</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H55" s="25" t="s">
         <v>83</v>
@@ -4777,10 +4771,10 @@
         <v>58</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>83</v>
@@ -4815,10 +4809,10 @@
         <v>58</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H57" s="25" t="s">
         <v>122</v>
@@ -4853,10 +4847,10 @@
         <v>58</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H58" s="25" t="s">
         <v>66</v>
@@ -4891,10 +4885,10 @@
         <v>58</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H59" s="25" t="s">
         <v>87</v>
@@ -4929,10 +4923,10 @@
         <v>58</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H60" s="25" t="s">
         <v>69</v>
@@ -4967,10 +4961,10 @@
         <v>58</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H61" s="25" t="s">
         <v>69</v>
@@ -5005,10 +4999,10 @@
         <v>58</v>
       </c>
       <c r="F62" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H62" s="25" t="s">
         <v>72</v>
@@ -5043,10 +5037,10 @@
         <v>58</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H63" s="25" t="s">
         <v>72</v>
@@ -5081,10 +5075,10 @@
         <v>58</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H64" s="25" t="s">
         <v>64</v>
@@ -5119,10 +5113,10 @@
         <v>58</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H65" s="25" t="s">
         <v>64</v>
@@ -5157,10 +5151,10 @@
         <v>58</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>83</v>
@@ -5195,10 +5189,10 @@
         <v>58</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>83</v>
@@ -5233,10 +5227,10 @@
         <v>58</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>122</v>
@@ -5271,10 +5265,10 @@
         <v>58</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H69" s="25" t="s">
         <v>66</v>
@@ -5309,10 +5303,10 @@
         <v>58</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>87</v>
@@ -5347,10 +5341,10 @@
         <v>58</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H71" s="25" t="s">
         <v>69</v>
@@ -5385,10 +5379,10 @@
         <v>58</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H72" s="25" t="s">
         <v>69</v>
@@ -5423,10 +5417,10 @@
         <v>58</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H73" s="25" t="s">
         <v>72</v>
@@ -5461,10 +5455,10 @@
         <v>58</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H74" s="25" t="s">
         <v>72</v>
@@ -5499,10 +5493,10 @@
         <v>58</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H75" s="25" t="s">
         <v>64</v>
@@ -5537,10 +5531,10 @@
         <v>58</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H76" s="25" t="s">
         <v>64</v>
@@ -5575,10 +5569,10 @@
         <v>58</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H77" s="25" t="s">
         <v>83</v>
@@ -5613,10 +5607,10 @@
         <v>58</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H78" s="25" t="s">
         <v>83</v>
@@ -5651,10 +5645,10 @@
         <v>58</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H79" s="25" t="s">
         <v>122</v>
@@ -5689,10 +5683,10 @@
         <v>58</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>66</v>
@@ -5727,10 +5721,10 @@
         <v>58</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H81" s="25" t="s">
         <v>87</v>
@@ -5765,10 +5759,10 @@
         <v>58</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H82" s="25" t="s">
         <v>69</v>
@@ -5803,10 +5797,10 @@
         <v>58</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H83" s="25" t="s">
         <v>69</v>
@@ -5841,10 +5835,10 @@
         <v>58</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H84" s="25" t="s">
         <v>72</v>
@@ -5879,10 +5873,10 @@
         <v>58</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H85" s="25" t="s">
         <v>72</v>
@@ -8620,8 +8614,8 @@
   </sheetPr>
   <dimension ref="A1:L906"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8684,25 +8678,25 @@
         <v>139</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>59</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K2" s="27">
         <v>35343</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75">
@@ -8722,25 +8716,25 @@
         <v>139</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>59</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K3" s="27">
         <v>54275</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75">
@@ -11523,31 +11517,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="40" t="s">
+      <c r="I2" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="K2" s="27">
         <v>10829</v>
@@ -11558,31 +11552,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>147</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>149</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K3" s="27">
         <v>9755</v>
@@ -14300,8 +14294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855F4CF-4650-45D4-87F0-B29B2A97A803}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14314,7 +14308,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -14383,7 +14377,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -14391,7 +14385,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>35</v>
@@ -14399,7 +14393,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>35</v>
@@ -14407,7 +14401,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>35</v>
@@ -14415,7 +14409,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B14">
         <v>35</v>
@@ -14431,7 +14425,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16">
         <v>35</v>
@@ -14439,7 +14433,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17">
         <v>35</v>
@@ -14447,7 +14441,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18">
         <v>35</v>
@@ -14455,7 +14449,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19">
         <v>35</v>
@@ -14463,7 +14457,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <v>30</v>
@@ -14471,7 +14465,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -14479,7 +14473,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22">
         <v>20</v>

--- a/data/raw/raw_boms.xlsx
+++ b/data/raw/raw_boms.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B136A983-46BA-472B-9DD3-9240E0E57897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5DE4A-214C-4802-B8A9-9ABE5DE8322B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
     <sheet name="Enclosure - Opaque" sheetId="2" r:id="rId2"/>
     <sheet name="Enclosure - Translucent" sheetId="3" r:id="rId3"/>
     <sheet name="Enclosure - Roofing" sheetId="4" r:id="rId4"/>
-    <sheet name="Service Lives" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Enclosure - Opaque'!$A$1:$L$85</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="177">
   <si>
     <t>Building Type</t>
   </si>
@@ -401,18 +400,6 @@
     <t>Polyisocyanurate board</t>
   </si>
   <si>
-    <t>Service Life</t>
-  </si>
-  <si>
-    <t>STR1</t>
-  </si>
-  <si>
-    <t>STR2</t>
-  </si>
-  <si>
-    <t>STR3</t>
-  </si>
-  <si>
     <t>ENCO1</t>
   </si>
   <si>
@@ -485,27 +472,18 @@
     <t>Insulated metal panel</t>
   </si>
   <si>
-    <t>Steel decking, galvanized</t>
-  </si>
-  <si>
     <t>PIR rigid foam insulation, wall, R=14.6, PIMA - EPD</t>
   </si>
   <si>
     <t>Hot rolled structural steel, AISC - EPD</t>
   </si>
   <si>
-    <t>Galvanized steel decking</t>
-  </si>
-  <si>
     <t>Insulated metal panel (IMP), Kingspan, Laminated metal panel - EPD</t>
   </si>
   <si>
     <t>Glue laminated timber (Glulam), AWC - EPD</t>
   </si>
   <si>
-    <t>Curtain wall: alu spandrel</t>
-  </si>
-  <si>
     <t>Glazing: double pane IGU</t>
   </si>
   <si>
@@ -548,15 +526,6 @@
     <t>Glass fiber reinforced concrete (GFRC) Panel</t>
   </si>
   <si>
-    <t>Normalweight concrete, 4000 psi</t>
-  </si>
-  <si>
-    <t>Normalweight concrete, 6000 psi</t>
-  </si>
-  <si>
-    <t>Normalweight concrete, 5000 psi</t>
-  </si>
-  <si>
     <t>5" Mineral wool insulation</t>
   </si>
   <si>
@@ -564,6 +533,30 @@
   </si>
   <si>
     <t>3.5" Mineral wool insulation</t>
+  </si>
+  <si>
+    <t>Normalweight Concrete, 4000 psi</t>
+  </si>
+  <si>
+    <t>Steel, deck, galvanized</t>
+  </si>
+  <si>
+    <t>Coated steel deck, SDI - EPD</t>
+  </si>
+  <si>
+    <t>Normalweight Concrete, 6000 psi</t>
+  </si>
+  <si>
+    <t>Column Foundation</t>
+  </si>
+  <si>
+    <t>Wall Foundation</t>
+  </si>
+  <si>
+    <t>Slab on Grade</t>
+  </si>
+  <si>
+    <t>Normalweight Concrete, 5000 psi</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1026,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1109,8 +1102,8 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>125</v>
+      <c r="F2" s="6">
+        <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
@@ -1119,13 +1112,13 @@
         <v>18</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="10">
-        <v>169198</v>
+        <v>668697</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>20</v>
@@ -1147,8 +1140,8 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>125</v>
+      <c r="F3" s="6">
+        <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
@@ -1163,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="10">
-        <v>12633</v>
+        <v>74893</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>20</v>
@@ -1185,8 +1178,8 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>125</v>
+      <c r="F4" s="6">
+        <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>23</v>
@@ -1195,13 +1188,13 @@
         <v>18</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="10">
-        <v>309582</v>
+        <v>1905120</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>20</v>
@@ -1223,8 +1216,8 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>125</v>
+      <c r="F5" s="6">
+        <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -1239,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="K5" s="10">
-        <v>23115</v>
+        <v>213370</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>20</v>
@@ -1261,8 +1254,8 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>125</v>
+      <c r="F6" s="6">
+        <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
@@ -1271,7 +1264,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>19</v>
@@ -1299,8 +1292,8 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>125</v>
+      <c r="F7" s="6">
+        <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -1337,8 +1330,8 @@
       <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>125</v>
+      <c r="F8" s="6">
+        <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>33</v>
@@ -1375,8 +1368,8 @@
       <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>125</v>
+      <c r="F9" s="6">
+        <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>33</v>
@@ -1385,10 +1378,10 @@
         <v>37</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K9" s="10">
         <v>132267</v>
@@ -1413,8 +1406,8 @@
       <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>125</v>
+      <c r="F10" s="6">
+        <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>33</v>
@@ -1451,8 +1444,8 @@
       <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>125</v>
+      <c r="F11" s="6">
+        <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>38</v>
@@ -1464,10 +1457,10 @@
         <v>40</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K11" s="10">
-        <v>217730</v>
+        <v>145303</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>20</v>
@@ -1489,8 +1482,8 @@
       <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>125</v>
+      <c r="F12" s="6">
+        <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>41</v>
@@ -1502,10 +1495,10 @@
         <v>40</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K12" s="10">
-        <v>89824</v>
+        <v>65264</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>20</v>
@@ -1527,8 +1520,8 @@
       <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>125</v>
+      <c r="F13" s="6">
+        <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>42</v>
@@ -1540,10 +1533,10 @@
         <v>40</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K13" s="10">
-        <v>44674</v>
+        <v>116629</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>20</v>
@@ -1565,8 +1558,8 @@
       <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>125</v>
+      <c r="F14" s="6">
+        <v>1</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>43</v>
@@ -1575,13 +1568,13 @@
         <v>44</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K14" s="10">
-        <v>874123</v>
+        <v>1092652</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>20</v>
@@ -1603,8 +1596,8 @@
       <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>125</v>
+      <c r="F15" s="6">
+        <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>43</v>
@@ -1619,7 +1612,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="10">
-        <v>65267</v>
+        <v>142771</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>20</v>
@@ -1641,8 +1634,8 @@
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>126</v>
+      <c r="F16" s="6">
+        <v>2</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>17</v>
@@ -1651,13 +1644,13 @@
         <v>18</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="10">
-        <v>169198</v>
+        <v>1219277</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>20</v>
@@ -1679,8 +1672,8 @@
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>126</v>
+      <c r="F17" s="6">
+        <v>2</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>17</v>
@@ -1695,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="K17" s="10">
-        <v>12633</v>
+        <v>136557</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>20</v>
@@ -1717,8 +1710,8 @@
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>126</v>
+      <c r="F18" s="6">
+        <v>2</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>23</v>
@@ -1727,13 +1720,13 @@
         <v>18</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="10">
-        <v>309582</v>
+        <v>1905120</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>20</v>
@@ -1755,8 +1748,8 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>126</v>
+      <c r="F19" s="6">
+        <v>2</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>23</v>
@@ -1771,7 +1764,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="10">
-        <v>23115</v>
+        <v>213370</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>20</v>
@@ -1793,8 +1786,8 @@
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>126</v>
+      <c r="F20" s="6">
+        <v>2</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>25</v>
@@ -1803,7 +1796,7 @@
         <v>26</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>19</v>
@@ -1831,8 +1824,8 @@
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>126</v>
+      <c r="F21" s="6">
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>25</v>
@@ -1869,23 +1862,23 @@
       <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>126</v>
+      <c r="F22" s="6">
+        <v>2</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K22" s="10">
-        <v>6429780</v>
+        <v>2551980</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>20</v>
@@ -1907,23 +1900,23 @@
       <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>126</v>
+      <c r="F23" s="6">
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="K23" s="10">
-        <v>43207</v>
+        <v>132267</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>20</v>
@@ -1945,23 +1938,23 @@
       <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>126</v>
+      <c r="F24" s="6">
+        <v>2</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K24" s="10">
-        <v>601223</v>
+        <v>17149</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>20</v>
@@ -1983,23 +1976,23 @@
       <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>126</v>
+      <c r="F25" s="6">
+        <v>2</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="K25" s="10">
-        <v>20004</v>
+        <v>208771</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>20</v>
@@ -2021,23 +2014,23 @@
       <c r="E26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>126</v>
+      <c r="F26" s="6">
+        <v>2</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="K26" s="10">
-        <v>874123</v>
+        <v>152764</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>20</v>
@@ -2059,23 +2052,23 @@
       <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>126</v>
+      <c r="F27" s="6">
+        <v>2</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="K27" s="10">
-        <v>65267</v>
+        <v>97990</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>20</v>
@@ -2086,34 +2079,34 @@
         <v>12</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>127</v>
+        <v>32</v>
+      </c>
+      <c r="F28" s="15">
+        <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K28" s="10">
-        <v>201466</v>
+        <v>1092652</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>20</v>
@@ -2124,22 +2117,22 @@
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>127</v>
+        <v>32</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>21</v>
@@ -2151,7 +2144,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="10">
-        <v>15043</v>
+        <v>142771</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>20</v>
@@ -2173,23 +2166,23 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>127</v>
+      <c r="F30" s="15">
+        <v>3</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>19</v>
       </c>
       <c r="K30" s="10">
-        <v>309582</v>
+        <v>342922</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>20</v>
@@ -2211,11 +2204,11 @@
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>127</v>
+      <c r="F31" s="15">
+        <v>3</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>21</v>
@@ -2227,7 +2220,7 @@
         <v>22</v>
       </c>
       <c r="K31" s="10">
-        <v>23115</v>
+        <v>38407</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>20</v>
@@ -2238,7 +2231,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>14</v>
@@ -2249,23 +2242,23 @@
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>127</v>
+      <c r="F32" s="15">
+        <v>3</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>19</v>
       </c>
       <c r="K32" s="10">
-        <v>535815</v>
+        <v>2357586</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>20</v>
@@ -2276,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>14</v>
@@ -2287,23 +2280,23 @@
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>127</v>
+      <c r="F33" s="15">
+        <v>3</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K33" s="10">
-        <v>3601</v>
+        <v>264045</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>20</v>
@@ -2314,34 +2307,34 @@
         <v>12</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="F34" s="15">
+        <v>3</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K34" s="10">
-        <v>1607445</v>
+        <v>535815</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>20</v>
@@ -2352,34 +2345,34 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="F35" s="15">
+        <v>3</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K35" s="10">
-        <v>775305</v>
+        <v>3601</v>
       </c>
       <c r="L35" s="11" t="s">
         <v>20</v>
@@ -2401,23 +2394,23 @@
       <c r="E36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>127</v>
+      <c r="F36" s="15">
+        <v>3</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K36" s="10">
-        <v>10802</v>
+        <v>2551980</v>
       </c>
       <c r="L36" s="11" t="s">
         <v>20</v>
@@ -2439,23 +2432,23 @@
       <c r="E37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>127</v>
+      <c r="F37" s="15">
+        <v>3</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K37" s="10">
-        <v>54158</v>
+        <v>132267</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>20</v>
@@ -2477,23 +2470,23 @@
       <c r="E38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>127</v>
+      <c r="F38" s="15">
+        <v>3</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="K38" s="10">
-        <v>227907</v>
+        <v>17149</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>20</v>
@@ -2515,23 +2508,23 @@
       <c r="E39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>127</v>
+      <c r="F39" s="15">
+        <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K39" s="10">
-        <v>136704</v>
+        <v>44512</v>
       </c>
       <c r="L39" s="11" t="s">
         <v>20</v>
@@ -2553,23 +2546,23 @@
       <c r="E40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>127</v>
+      <c r="F40" s="15">
+        <v>3</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="K40" s="10">
-        <v>874123</v>
+        <v>41074</v>
       </c>
       <c r="L40" s="11" t="s">
         <v>20</v>
@@ -2591,30 +2584,3071 @@
       <c r="E41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>127</v>
+      <c r="F41" s="15">
+        <v>3</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="K41" s="10">
-        <v>65267</v>
+        <v>121621</v>
       </c>
       <c r="L41" s="11" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>1092652</v>
+      </c>
+      <c r="L42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43">
+        <v>142771</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>1044839</v>
+      </c>
+      <c r="L44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45">
+        <v>117020</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>1905120</v>
+      </c>
+      <c r="L46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>174</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47">
+        <v>213370</v>
+      </c>
+      <c r="L47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>535815</v>
+      </c>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49">
+        <v>3601</v>
+      </c>
+      <c r="L49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <v>6429780</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <v>43207</v>
+      </c>
+      <c r="L51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52">
+        <v>534398</v>
+      </c>
+      <c r="L52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <v>39901</v>
+      </c>
+      <c r="L53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" t="s">
+        <v>172</v>
+      </c>
+      <c r="J54" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54">
+        <v>1092652</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <v>142771</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>169</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56">
+        <v>2334010</v>
+      </c>
+      <c r="L56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57">
+        <v>261405</v>
+      </c>
+      <c r="L57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>174</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>169</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58">
+        <v>1905120</v>
+      </c>
+      <c r="L58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>174</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59">
+        <v>213370</v>
+      </c>
+      <c r="L59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>169</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60">
+        <v>535815</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61">
+        <v>3601</v>
+      </c>
+      <c r="L61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>176</v>
+      </c>
+      <c r="J62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62">
+        <v>8573040</v>
+      </c>
+      <c r="L62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63">
+        <v>57610</v>
+      </c>
+      <c r="L63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" t="s">
+        <v>47</v>
+      </c>
+      <c r="K64">
+        <v>710954</v>
+      </c>
+      <c r="L64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65">
+        <v>53084</v>
+      </c>
+      <c r="L65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s">
+        <v>172</v>
+      </c>
+      <c r="J66" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66">
+        <v>1092652</v>
+      </c>
+      <c r="L66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67">
+        <v>142771</v>
+      </c>
+      <c r="L67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>169</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68">
+        <v>547722</v>
+      </c>
+      <c r="L68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69">
+        <v>61344</v>
+      </c>
+      <c r="L69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>174</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>169</v>
+      </c>
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70">
+        <v>2357586</v>
+      </c>
+      <c r="L70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71">
+        <v>264045</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>175</v>
+      </c>
+      <c r="H72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s">
+        <v>169</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72">
+        <v>535815</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>175</v>
+      </c>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73">
+        <v>3601</v>
+      </c>
+      <c r="L73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>176</v>
+      </c>
+      <c r="J74" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74">
+        <v>4822335</v>
+      </c>
+      <c r="L74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75">
+        <v>32406</v>
+      </c>
+      <c r="L75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" t="s">
+        <v>176</v>
+      </c>
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76">
+        <v>507759</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77">
+        <v>37912</v>
+      </c>
+      <c r="L77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s">
+        <v>172</v>
+      </c>
+      <c r="J78" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78">
+        <v>1092652</v>
+      </c>
+      <c r="L78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79">
+        <v>142771</v>
+      </c>
+      <c r="L79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>173</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>169</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80">
+        <v>342922</v>
+      </c>
+      <c r="L80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>173</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81">
+        <v>38407</v>
+      </c>
+      <c r="L81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>174</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>169</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82">
+        <v>2357586</v>
+      </c>
+      <c r="L82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>174</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83">
+        <v>264045</v>
+      </c>
+      <c r="L83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>175</v>
+      </c>
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>169</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84">
+        <v>535815</v>
+      </c>
+      <c r="L84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>175</v>
+      </c>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85">
+        <v>3601</v>
+      </c>
+      <c r="L85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s">
+        <v>35</v>
+      </c>
+      <c r="J86" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86">
+        <v>1285956</v>
+      </c>
+      <c r="L86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" t="s">
+        <v>50</v>
+      </c>
+      <c r="J87" t="s">
+        <v>50</v>
+      </c>
+      <c r="K87">
+        <v>620244</v>
+      </c>
+      <c r="L87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88">
+        <v>8641</v>
+      </c>
+      <c r="L88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" t="s">
+        <v>52</v>
+      </c>
+      <c r="J89" t="s">
+        <v>151</v>
+      </c>
+      <c r="K89">
+        <v>66358</v>
+      </c>
+      <c r="L89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s">
+        <v>52</v>
+      </c>
+      <c r="J90" t="s">
+        <v>151</v>
+      </c>
+      <c r="K90">
+        <v>57373</v>
+      </c>
+      <c r="L90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" t="s">
+        <v>52</v>
+      </c>
+      <c r="J91" t="s">
+        <v>151</v>
+      </c>
+      <c r="K91">
+        <v>94307</v>
+      </c>
+      <c r="L91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H92" t="s">
+        <v>44</v>
+      </c>
+      <c r="I92" t="s">
+        <v>172</v>
+      </c>
+      <c r="J92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92">
+        <v>1092652</v>
+      </c>
+      <c r="L92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>43</v>
+      </c>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93">
+        <v>142771</v>
+      </c>
+      <c r="L93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>169</v>
+      </c>
+      <c r="J94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94">
+        <v>535815</v>
+      </c>
+      <c r="L94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>173</v>
+      </c>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95">
+        <v>60010</v>
+      </c>
+      <c r="L95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>174</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>169</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96">
+        <v>2357586</v>
+      </c>
+      <c r="L96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>174</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" t="s">
+        <v>22</v>
+      </c>
+      <c r="K97">
+        <v>264045</v>
+      </c>
+      <c r="L97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>175</v>
+      </c>
+      <c r="H98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" t="s">
+        <v>169</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98">
+        <v>535815</v>
+      </c>
+      <c r="L98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99">
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>175</v>
+      </c>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99">
+        <v>3601</v>
+      </c>
+      <c r="L99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" t="s">
+        <v>35</v>
+      </c>
+      <c r="J100" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100">
+        <v>1607445</v>
+      </c>
+      <c r="L100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" t="s">
+        <v>49</v>
+      </c>
+      <c r="I101" t="s">
+        <v>50</v>
+      </c>
+      <c r="J101" t="s">
+        <v>50</v>
+      </c>
+      <c r="K101">
+        <v>775305</v>
+      </c>
+      <c r="L101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" t="s">
+        <v>28</v>
+      </c>
+      <c r="K102">
+        <v>10802</v>
+      </c>
+      <c r="L102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" t="s">
+        <v>51</v>
+      </c>
+      <c r="I103" t="s">
+        <v>52</v>
+      </c>
+      <c r="J103" t="s">
+        <v>151</v>
+      </c>
+      <c r="K103">
+        <v>109396</v>
+      </c>
+      <c r="L103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s">
+        <v>51</v>
+      </c>
+      <c r="I104" t="s">
+        <v>52</v>
+      </c>
+      <c r="J104" t="s">
+        <v>151</v>
+      </c>
+      <c r="K104">
+        <v>76129</v>
+      </c>
+      <c r="L104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" t="s">
+        <v>151</v>
+      </c>
+      <c r="K105">
+        <v>107537</v>
+      </c>
+      <c r="L105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s">
+        <v>172</v>
+      </c>
+      <c r="J106" t="s">
+        <v>45</v>
+      </c>
+      <c r="K106">
+        <v>1092652</v>
+      </c>
+      <c r="L106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107">
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107">
+        <v>142771</v>
+      </c>
+      <c r="L107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>173</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>169</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108">
+        <v>141455</v>
+      </c>
+      <c r="L108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>173</v>
+      </c>
+      <c r="H109" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109">
+        <v>15843</v>
+      </c>
+      <c r="L109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>174</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>169</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110">
+        <v>2357586</v>
+      </c>
+      <c r="L110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>174</v>
+      </c>
+      <c r="H111" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111">
+        <v>264045</v>
+      </c>
+      <c r="L111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>175</v>
+      </c>
+      <c r="H112" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" t="s">
+        <v>169</v>
+      </c>
+      <c r="J112" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112">
+        <v>535815</v>
+      </c>
+      <c r="L112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>175</v>
+      </c>
+      <c r="H113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113">
+        <v>3601</v>
+      </c>
+      <c r="L113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114">
+        <v>1607445</v>
+      </c>
+      <c r="L114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" t="s">
+        <v>49</v>
+      </c>
+      <c r="I115" t="s">
+        <v>50</v>
+      </c>
+      <c r="J115" t="s">
+        <v>50</v>
+      </c>
+      <c r="K115">
+        <v>775305</v>
+      </c>
+      <c r="L115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116">
+        <v>10802</v>
+      </c>
+      <c r="L116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>38</v>
+      </c>
+      <c r="H117" t="s">
+        <v>51</v>
+      </c>
+      <c r="I117" t="s">
+        <v>52</v>
+      </c>
+      <c r="J117" t="s">
+        <v>151</v>
+      </c>
+      <c r="K117">
+        <v>37922</v>
+      </c>
+      <c r="L117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118" t="s">
+        <v>51</v>
+      </c>
+      <c r="I118" t="s">
+        <v>52</v>
+      </c>
+      <c r="J118" t="s">
+        <v>151</v>
+      </c>
+      <c r="K118">
+        <v>31185</v>
+      </c>
+      <c r="L118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" t="s">
+        <v>51</v>
+      </c>
+      <c r="I119" t="s">
+        <v>52</v>
+      </c>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+      <c r="K119">
+        <v>71691</v>
+      </c>
+      <c r="L119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" t="s">
+        <v>172</v>
+      </c>
+      <c r="J120" t="s">
+        <v>45</v>
+      </c>
+      <c r="K120">
+        <v>1092652</v>
+      </c>
+      <c r="L120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" t="s">
+        <v>22</v>
+      </c>
+      <c r="K121">
+        <v>142771</v>
+      </c>
+      <c r="L121" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2625,7 +5659,7 @@
   </sheetPr>
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
@@ -2692,10 +5726,10 @@
         <v>55</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>60</v>
@@ -2730,16 +5764,16 @@
         <v>55</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>63</v>
@@ -2768,10 +5802,10 @@
         <v>55</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>66</v>
@@ -2806,10 +5840,10 @@
         <v>55</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>64</v>
@@ -2844,10 +5878,10 @@
         <v>55</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>66</v>
@@ -2882,16 +5916,16 @@
         <v>55</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>58</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>59</v>
@@ -2920,16 +5954,16 @@
         <v>55</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>63</v>
@@ -2958,10 +5992,10 @@
         <v>55</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>64</v>
@@ -2996,16 +6030,16 @@
         <v>55</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>109</v>
@@ -3034,16 +6068,16 @@
         <v>55</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>108</v>
@@ -3072,16 +6106,16 @@
         <v>55</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>74</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>76</v>
@@ -3110,10 +6144,10 @@
         <v>55</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>66</v>
@@ -3148,16 +6182,16 @@
         <v>55</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>91</v>
@@ -3186,10 +6220,10 @@
         <v>55</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>77</v>
@@ -3224,10 +6258,10 @@
         <v>55</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>64</v>
@@ -3262,10 +6296,10 @@
         <v>55</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>101</v>
@@ -3300,10 +6334,10 @@
         <v>55</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>66</v>
@@ -3338,16 +6372,16 @@
         <v>55</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>63</v>
@@ -3376,10 +6410,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>66</v>
@@ -3414,10 +6448,10 @@
         <v>55</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>64</v>
@@ -3452,16 +6486,16 @@
         <v>55</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>58</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>70</v>
@@ -3490,10 +6524,10 @@
         <v>55</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>66</v>
@@ -3528,10 +6562,10 @@
         <v>55</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>60</v>
@@ -3566,10 +6600,10 @@
         <v>55</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>74</v>
@@ -3604,16 +6638,16 @@
         <v>55</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>63</v>
@@ -3642,10 +6676,10 @@
         <v>55</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>77</v>
@@ -3680,10 +6714,10 @@
         <v>55</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>64</v>
@@ -3718,10 +6752,10 @@
         <v>55</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>64</v>
@@ -3756,10 +6790,10 @@
         <v>55</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>66</v>
@@ -3794,10 +6828,10 @@
         <v>55</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>66</v>
@@ -3832,16 +6866,16 @@
         <v>55</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>73</v>
@@ -3870,10 +6904,10 @@
         <v>55</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>64</v>
@@ -3908,10 +6942,10 @@
         <v>55</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H34" s="25" t="s">
         <v>60</v>
@@ -3946,10 +6980,10 @@
         <v>55</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>60</v>
@@ -3984,10 +7018,10 @@
         <v>55</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>74</v>
@@ -4022,16 +7056,16 @@
         <v>55</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H37" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J37" s="25" t="s">
         <v>63</v>
@@ -4060,10 +7094,10 @@
         <v>55</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>77</v>
@@ -4098,10 +7132,10 @@
         <v>55</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>64</v>
@@ -4136,10 +7170,10 @@
         <v>55</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>66</v>
@@ -4174,10 +7208,10 @@
         <v>55</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>66</v>
@@ -4212,10 +7246,10 @@
         <v>55</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>64</v>
@@ -4250,10 +7284,10 @@
         <v>55</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H43" s="25" t="s">
         <v>88</v>
@@ -4262,7 +7296,7 @@
         <v>89</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K43" s="27">
         <v>29658</v>
@@ -4288,10 +7322,10 @@
         <v>55</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>60</v>
@@ -4326,10 +7360,10 @@
         <v>55</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H45" s="25" t="s">
         <v>66</v>
@@ -4364,10 +7398,10 @@
         <v>55</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H46" s="25" t="s">
         <v>66</v>
@@ -4402,16 +7436,16 @@
         <v>55</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H47" s="25" t="s">
         <v>74</v>
       </c>
       <c r="I47" s="41" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>91</v>
@@ -4440,7 +7474,7 @@
         <v>55</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>92</v>
@@ -4449,7 +7483,7 @@
         <v>60</v>
       </c>
       <c r="I48" s="41" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J48" s="25" t="s">
         <v>93</v>
@@ -4478,7 +7512,7 @@
         <v>55</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>92</v>
@@ -4516,7 +7550,7 @@
         <v>55</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>92</v>
@@ -4554,7 +7588,7 @@
         <v>55</v>
       </c>
       <c r="F51" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>92</v>
@@ -4592,7 +7626,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>92</v>
@@ -4630,7 +7664,7 @@
         <v>55</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>92</v>
@@ -4668,7 +7702,7 @@
         <v>55</v>
       </c>
       <c r="F54" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>92</v>
@@ -4706,16 +7740,16 @@
         <v>55</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H55" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I55" s="41" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J55" s="25" t="s">
         <v>63</v>
@@ -4744,10 +7778,10 @@
         <v>55</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>64</v>
@@ -4782,10 +7816,10 @@
         <v>55</v>
       </c>
       <c r="F57" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H57" s="25" t="s">
         <v>74</v>
@@ -4820,10 +7854,10 @@
         <v>55</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H58" s="25" t="s">
         <v>77</v>
@@ -4858,10 +7892,10 @@
         <v>55</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H59" s="25" t="s">
         <v>64</v>
@@ -4896,10 +7930,10 @@
         <v>55</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H60" s="25" t="s">
         <v>66</v>
@@ -4934,16 +7968,16 @@
         <v>55</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H61" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I61" s="41" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J61" s="25" t="s">
         <v>97</v>
@@ -4972,10 +8006,10 @@
         <v>55</v>
       </c>
       <c r="F62" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H62" s="25" t="s">
         <v>66</v>
@@ -5010,16 +8044,16 @@
         <v>55</v>
       </c>
       <c r="F63" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H63" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I63" s="41" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J63" s="25" t="s">
         <v>63</v>
@@ -5048,10 +8082,10 @@
         <v>55</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H64" s="25" t="s">
         <v>64</v>
@@ -5086,16 +8120,16 @@
         <v>55</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H65" s="25" t="s">
         <v>74</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J65" s="25" t="s">
         <v>100</v>
@@ -5124,10 +8158,10 @@
         <v>55</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>60</v>
@@ -5162,10 +8196,10 @@
         <v>55</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H67" s="25" t="s">
         <v>60</v>
@@ -5200,10 +8234,10 @@
         <v>55</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H68" s="25" t="s">
         <v>74</v>
@@ -5238,10 +8272,10 @@
         <v>55</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H69" s="25" t="s">
         <v>74</v>
@@ -5276,10 +8310,10 @@
         <v>55</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H70" s="25" t="s">
         <v>77</v>
@@ -5314,10 +8348,10 @@
         <v>55</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H71" s="25" t="s">
         <v>64</v>
@@ -5352,10 +8386,10 @@
         <v>55</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H72" s="25" t="s">
         <v>66</v>
@@ -5390,10 +8424,10 @@
         <v>55</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H73" s="25" t="s">
         <v>66</v>
@@ -5428,10 +8462,10 @@
         <v>55</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H74" s="25" t="s">
         <v>101</v>
@@ -5466,16 +8500,16 @@
         <v>55</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H75" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>63</v>
@@ -5504,10 +8538,10 @@
         <v>55</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H76" s="25" t="s">
         <v>64</v>
@@ -5542,16 +8576,16 @@
         <v>55</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H77" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>103</v>
@@ -5580,10 +8614,10 @@
         <v>55</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H78" s="25" t="s">
         <v>60</v>
@@ -5618,10 +8652,10 @@
         <v>55</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H79" s="25" t="s">
         <v>74</v>
@@ -5656,10 +8690,10 @@
         <v>55</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H80" s="25" t="s">
         <v>74</v>
@@ -5694,10 +8728,10 @@
         <v>55</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H81" s="25" t="s">
         <v>77</v>
@@ -5732,10 +8766,10 @@
         <v>55</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H82" s="25" t="s">
         <v>64</v>
@@ -5770,10 +8804,10 @@
         <v>55</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H83" s="25" t="s">
         <v>66</v>
@@ -5808,10 +8842,10 @@
         <v>55</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H84" s="25" t="s">
         <v>66</v>
@@ -5846,10 +8880,10 @@
         <v>55</v>
       </c>
       <c r="F85" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H85" s="25" t="s">
         <v>101</v>
@@ -8656,10 +11690,10 @@
         <v>111</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>56</v>
@@ -8668,7 +11702,7 @@
         <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K2" s="27">
         <v>35343</v>
@@ -8694,10 +11728,10 @@
         <v>111</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>56</v>
@@ -8706,7 +11740,7 @@
         <v>114</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K3" s="27">
         <v>54275</v>
@@ -11443,7 +14477,7 @@
   </sheetPr>
   <dimension ref="A1:L903"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -11507,7 +14541,7 @@
         <v>118</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>119</v>
@@ -11542,7 +14576,7 @@
         <v>118</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>119</v>
@@ -11554,7 +14588,7 @@
         <v>123</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K3" s="27">
         <v>9755</v>
@@ -14262,200 +17296,6 @@
     </row>
     <row r="903" spans="11:11">
       <c r="K903" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B855F4CF-4650-45D4-87F0-B29B2A97A803}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/raw_boms.xlsx
+++ b/data/raw/raw_boms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5DE4A-214C-4802-B8A9-9ABE5DE8322B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129AFEF6-1132-4633-A09B-1C6F9C314431}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="183">
   <si>
     <t>Building Type</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Slab on grade</t>
   </si>
   <si>
-    <t>Concrete slab on grade</t>
-  </si>
-  <si>
     <t>Steel welded wire mesh</t>
   </si>
   <si>
@@ -535,28 +532,49 @@
     <t>3.5" Mineral wool insulation</t>
   </si>
   <si>
-    <t>Normalweight Concrete, 4000 psi</t>
-  </si>
-  <si>
-    <t>Steel, deck, galvanized</t>
-  </si>
-  <si>
-    <t>Coated steel deck, SDI - EPD</t>
-  </si>
-  <si>
-    <t>Normalweight Concrete, 6000 psi</t>
-  </si>
-  <si>
-    <t>Column Foundation</t>
-  </si>
-  <si>
-    <t>Wall Foundation</t>
-  </si>
-  <si>
-    <t>Slab on Grade</t>
-  </si>
-  <si>
-    <t>Normalweight Concrete, 5000 psi</t>
+    <t>STR1</t>
+  </si>
+  <si>
+    <t>STR2</t>
+  </si>
+  <si>
+    <t>STR3</t>
+  </si>
+  <si>
+    <t>STR4</t>
+  </si>
+  <si>
+    <t>STR5</t>
+  </si>
+  <si>
+    <t>STR6</t>
+  </si>
+  <si>
+    <t>STR7</t>
+  </si>
+  <si>
+    <t>STR8</t>
+  </si>
+  <si>
+    <t>STR9</t>
+  </si>
+  <si>
+    <t>Normalweight concrete, 4000 psi</t>
+  </si>
+  <si>
+    <t>Normalweight concrete, 6000 psi</t>
+  </si>
+  <si>
+    <t>Normalweight concrete, 5000 psi</t>
+  </si>
+  <si>
+    <t>Concrete Slab on grade</t>
+  </si>
+  <si>
+    <t>Steel decking, galvanized</t>
+  </si>
+  <si>
+    <t>Galvanized steel decking</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1102,8 +1120,8 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6">
-        <v>1</v>
+      <c r="F2" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
@@ -1112,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>19</v>
@@ -1140,8 +1158,8 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
+      <c r="F3" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
@@ -1178,8 +1196,8 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
+      <c r="F4" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>23</v>
@@ -1188,7 +1206,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>19</v>
@@ -1216,8 +1234,8 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6">
-        <v>1</v>
+      <c r="F5" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -1254,17 +1272,17 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6">
-        <v>1</v>
+      <c r="F6" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>19</v>
@@ -1292,20 +1310,20 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="6">
-        <v>1</v>
+      <c r="F7" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="J7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="10">
         <v>3601</v>
@@ -1319,31 +1337,31 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="K8" s="10">
         <v>2551980</v>
@@ -1357,31 +1375,31 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="K9" s="10">
         <v>132267</v>
@@ -1395,31 +1413,31 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="J10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="10">
         <v>17149</v>
@@ -1433,31 +1451,31 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
+      <c r="F11" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="J11" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="10">
         <v>145303</v>
@@ -1471,31 +1489,31 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
+      <c r="F12" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="J12" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K12" s="10">
         <v>65264</v>
@@ -1509,31 +1527,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
+      <c r="F13" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="J13" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K13" s="10">
         <v>116629</v>
@@ -1547,31 +1565,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
+      <c r="F14" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="K14" s="10">
         <v>1092652</v>
@@ -1585,22 +1603,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
+      <c r="F15" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>21</v>
@@ -1634,8 +1652,8 @@
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="6">
-        <v>2</v>
+      <c r="F16" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>17</v>
@@ -1644,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>19</v>
@@ -1672,8 +1690,8 @@
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="6">
-        <v>2</v>
+      <c r="F17" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>17</v>
@@ -1710,8 +1728,8 @@
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="6">
-        <v>2</v>
+      <c r="F18" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>23</v>
@@ -1720,7 +1738,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>19</v>
@@ -1748,8 +1766,8 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6">
-        <v>2</v>
+      <c r="F19" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>23</v>
@@ -1786,17 +1804,17 @@
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="6">
-        <v>2</v>
+      <c r="F20" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>19</v>
@@ -1824,20 +1842,20 @@
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="6">
-        <v>2</v>
+      <c r="F21" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="J21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" s="10">
         <v>3601</v>
@@ -1851,31 +1869,31 @@
         <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="6">
-        <v>2</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="K22" s="10">
         <v>2551980</v>
@@ -1889,31 +1907,31 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="6">
-        <v>2</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="H23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="K23" s="10">
         <v>132267</v>
@@ -1927,31 +1945,31 @@
         <v>12</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="H24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="J24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" s="10">
         <v>17149</v>
@@ -1965,31 +1983,31 @@
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
+      <c r="F25" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="J25" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K25" s="10">
         <v>208771</v>
@@ -2003,31 +2021,31 @@
         <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2</v>
+      <c r="F26" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="J26" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" s="10">
         <v>152764</v>
@@ -2041,31 +2059,31 @@
         <v>12</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
+      <c r="F27" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="J27" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K27" s="10">
         <v>97990</v>
@@ -2079,31 +2097,31 @@
         <v>12</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="15">
-        <v>2</v>
+      <c r="F28" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="I28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="K28" s="10">
         <v>1092652</v>
@@ -2117,22 +2135,22 @@
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="15">
-        <v>2</v>
+      <c r="F29" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>21</v>
@@ -2166,8 +2184,8 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="15">
-        <v>3</v>
+      <c r="F30" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>17</v>
@@ -2176,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>19</v>
@@ -2204,8 +2222,8 @@
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="15">
-        <v>3</v>
+      <c r="F31" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>17</v>
@@ -2242,8 +2260,8 @@
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="15">
-        <v>3</v>
+      <c r="F32" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>23</v>
@@ -2252,7 +2270,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>19</v>
@@ -2280,8 +2298,8 @@
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="15">
-        <v>3</v>
+      <c r="F33" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>23</v>
@@ -2318,17 +2336,17 @@
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="15">
-        <v>3</v>
+      <c r="F34" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>19</v>
@@ -2356,20 +2374,20 @@
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="15">
-        <v>3</v>
+      <c r="F35" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="J35" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35" s="10">
         <v>3601</v>
@@ -2383,31 +2401,31 @@
         <v>12</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="15">
-        <v>3</v>
-      </c>
-      <c r="G36" s="16" t="s">
+      <c r="H36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="K36" s="10">
         <v>2551980</v>
@@ -2421,31 +2439,31 @@
         <v>12</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="15">
-        <v>3</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="H37" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="K37" s="10">
         <v>132267</v>
@@ -2459,31 +2477,31 @@
         <v>12</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="15">
-        <v>3</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="H38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="J38" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K38" s="10">
         <v>17149</v>
@@ -2497,31 +2515,31 @@
         <v>12</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="15">
-        <v>3</v>
+      <c r="F39" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G39" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="I39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="J39" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K39" s="10">
         <v>44512</v>
@@ -2535,31 +2553,31 @@
         <v>12</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="15">
-        <v>3</v>
+      <c r="F40" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="J40" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K40" s="10">
         <v>41074</v>
@@ -2573,31 +2591,31 @@
         <v>12</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="15">
-        <v>3</v>
+      <c r="F41" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="J41" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K41" s="10">
         <v>121621</v>
@@ -2611,31 +2629,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
         <v>29</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>30</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>31</v>
       </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
+      <c r="F42" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s">
         <v>43</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" t="s">
         <v>44</v>
-      </c>
-      <c r="I42" t="s">
-        <v>172</v>
-      </c>
-      <c r="J42" t="s">
-        <v>45</v>
       </c>
       <c r="K42">
         <v>1092652</v>
@@ -2649,22 +2667,22 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>31</v>
       </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
+      <c r="F43" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
         <v>21</v>
@@ -2698,17 +2716,17 @@
       <c r="E44" t="s">
         <v>16</v>
       </c>
-      <c r="F44">
-        <v>4</v>
+      <c r="F44" t="s">
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -2736,11 +2754,11 @@
       <c r="E45" t="s">
         <v>16</v>
       </c>
-      <c r="F45">
-        <v>4</v>
+      <c r="F45" t="s">
+        <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
         <v>21</v>
@@ -2774,17 +2792,17 @@
       <c r="E46" t="s">
         <v>16</v>
       </c>
-      <c r="F46">
-        <v>4</v>
+      <c r="F46" t="s">
+        <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -2812,11 +2830,11 @@
       <c r="E47" t="s">
         <v>16</v>
       </c>
-      <c r="F47">
-        <v>4</v>
+      <c r="F47" t="s">
+        <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
         <v>21</v>
@@ -2850,17 +2868,17 @@
       <c r="E48" t="s">
         <v>16</v>
       </c>
-      <c r="F48">
-        <v>4</v>
+      <c r="F48" t="s">
+        <v>171</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I48" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -2888,20 +2906,20 @@
       <c r="E49" t="s">
         <v>16</v>
       </c>
-      <c r="F49">
-        <v>4</v>
+      <c r="F49" t="s">
+        <v>171</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
         <v>27</v>
       </c>
-      <c r="I49" t="s">
-        <v>28</v>
-      </c>
       <c r="J49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K49">
         <v>3601</v>
@@ -2915,31 +2933,31 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
         <v>29</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>30</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>31</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" t="s">
         <v>32</v>
       </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
       <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" t="s">
         <v>46</v>
-      </c>
-      <c r="I50" t="s">
-        <v>176</v>
-      </c>
-      <c r="J50" t="s">
-        <v>47</v>
       </c>
       <c r="K50">
         <v>6429780</v>
@@ -2953,22 +2971,22 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
         <v>29</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>30</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>31</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" t="s">
         <v>32</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
-        <v>33</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
@@ -2991,31 +3009,31 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
         <v>29</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>30</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>31</v>
       </c>
-      <c r="E52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
+      <c r="F52" t="s">
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>534398</v>
@@ -3029,22 +3047,22 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>30</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>31</v>
       </c>
-      <c r="E53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
+      <c r="F53" t="s">
+        <v>171</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
         <v>21</v>
@@ -3067,31 +3085,31 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
         <v>29</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>31</v>
       </c>
-      <c r="E54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
+      <c r="F54" t="s">
+        <v>171</v>
       </c>
       <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
         <v>43</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
         <v>44</v>
-      </c>
-      <c r="I54" t="s">
-        <v>172</v>
-      </c>
-      <c r="J54" t="s">
-        <v>45</v>
       </c>
       <c r="K54">
         <v>1092652</v>
@@ -3105,22 +3123,22 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>30</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>31</v>
       </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
+      <c r="F55" t="s">
+        <v>171</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
         <v>21</v>
@@ -3154,17 +3172,17 @@
       <c r="E56" t="s">
         <v>16</v>
       </c>
-      <c r="F56">
-        <v>5</v>
+      <c r="F56" t="s">
+        <v>172</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
@@ -3192,11 +3210,11 @@
       <c r="E57" t="s">
         <v>16</v>
       </c>
-      <c r="F57">
-        <v>5</v>
+      <c r="F57" t="s">
+        <v>172</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
         <v>21</v>
@@ -3230,17 +3248,17 @@
       <c r="E58" t="s">
         <v>16</v>
       </c>
-      <c r="F58">
-        <v>5</v>
+      <c r="F58" t="s">
+        <v>172</v>
       </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
@@ -3268,11 +3286,11 @@
       <c r="E59" t="s">
         <v>16</v>
       </c>
-      <c r="F59">
-        <v>5</v>
+      <c r="F59" t="s">
+        <v>172</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
@@ -3306,17 +3324,17 @@
       <c r="E60" t="s">
         <v>16</v>
       </c>
-      <c r="F60">
-        <v>5</v>
+      <c r="F60" t="s">
+        <v>172</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I60" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J60" t="s">
         <v>19</v>
@@ -3344,20 +3362,20 @@
       <c r="E61" t="s">
         <v>16</v>
       </c>
-      <c r="F61">
-        <v>5</v>
+      <c r="F61" t="s">
+        <v>172</v>
       </c>
       <c r="G61" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s">
         <v>27</v>
       </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
       <c r="J61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K61">
         <v>3601</v>
@@ -3371,31 +3389,31 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
         <v>29</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>30</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>31</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" t="s">
         <v>32</v>
       </c>
-      <c r="F62">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
       <c r="H62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" t="s">
         <v>46</v>
-      </c>
-      <c r="I62" t="s">
-        <v>176</v>
-      </c>
-      <c r="J62" t="s">
-        <v>47</v>
       </c>
       <c r="K62">
         <v>8573040</v>
@@ -3409,22 +3427,22 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
         <v>29</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>30</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>31</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" t="s">
         <v>32</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
       </c>
       <c r="H63" t="s">
         <v>21</v>
@@ -3447,31 +3465,31 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
         <v>29</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>30</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>31</v>
       </c>
-      <c r="E64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64">
-        <v>5</v>
+      <c r="F64" t="s">
+        <v>172</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>710954</v>
@@ -3485,22 +3503,22 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
         <v>29</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>30</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>31</v>
       </c>
-      <c r="E65" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65">
-        <v>5</v>
+      <c r="F65" t="s">
+        <v>172</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H65" t="s">
         <v>21</v>
@@ -3523,31 +3541,31 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
         <v>29</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>30</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>31</v>
       </c>
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66">
-        <v>5</v>
+      <c r="F66" t="s">
+        <v>172</v>
       </c>
       <c r="G66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s">
         <v>43</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
+        <v>178</v>
+      </c>
+      <c r="J66" t="s">
         <v>44</v>
-      </c>
-      <c r="I66" t="s">
-        <v>172</v>
-      </c>
-      <c r="J66" t="s">
-        <v>45</v>
       </c>
       <c r="K66">
         <v>1092652</v>
@@ -3561,22 +3579,22 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
         <v>29</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>30</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>31</v>
       </c>
-      <c r="E67" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67">
-        <v>5</v>
+      <c r="F67" t="s">
+        <v>172</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H67" t="s">
         <v>21</v>
@@ -3610,17 +3628,17 @@
       <c r="E68" t="s">
         <v>16</v>
       </c>
-      <c r="F68">
-        <v>6</v>
+      <c r="F68" t="s">
+        <v>173</v>
       </c>
       <c r="G68" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J68" t="s">
         <v>19</v>
@@ -3648,11 +3666,11 @@
       <c r="E69" t="s">
         <v>16</v>
       </c>
-      <c r="F69">
-        <v>6</v>
+      <c r="F69" t="s">
+        <v>173</v>
       </c>
       <c r="G69" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
         <v>21</v>
@@ -3686,17 +3704,17 @@
       <c r="E70" t="s">
         <v>16</v>
       </c>
-      <c r="F70">
-        <v>6</v>
+      <c r="F70" t="s">
+        <v>173</v>
       </c>
       <c r="G70" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
         <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J70" t="s">
         <v>19</v>
@@ -3724,11 +3742,11 @@
       <c r="E71" t="s">
         <v>16</v>
       </c>
-      <c r="F71">
-        <v>6</v>
+      <c r="F71" t="s">
+        <v>173</v>
       </c>
       <c r="G71" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
@@ -3762,17 +3780,17 @@
       <c r="E72" t="s">
         <v>16</v>
       </c>
-      <c r="F72">
-        <v>6</v>
+      <c r="F72" t="s">
+        <v>173</v>
       </c>
       <c r="G72" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I72" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
@@ -3800,20 +3818,20 @@
       <c r="E73" t="s">
         <v>16</v>
       </c>
-      <c r="F73">
-        <v>6</v>
+      <c r="F73" t="s">
+        <v>173</v>
       </c>
       <c r="G73" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s">
         <v>27</v>
       </c>
-      <c r="I73" t="s">
-        <v>28</v>
-      </c>
       <c r="J73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K73">
         <v>3601</v>
@@ -3827,31 +3845,31 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
         <v>29</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>30</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>31</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G74" t="s">
         <v>32</v>
       </c>
-      <c r="F74">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
       <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s">
+        <v>179</v>
+      </c>
+      <c r="J74" t="s">
         <v>46</v>
-      </c>
-      <c r="I74" t="s">
-        <v>176</v>
-      </c>
-      <c r="J74" t="s">
-        <v>47</v>
       </c>
       <c r="K74">
         <v>4822335</v>
@@ -3865,22 +3883,22 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
         <v>29</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>30</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>31</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G75" t="s">
         <v>32</v>
-      </c>
-      <c r="F75">
-        <v>6</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
       </c>
       <c r="H75" t="s">
         <v>21</v>
@@ -3903,31 +3921,31 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
         <v>29</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>30</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>31</v>
       </c>
-      <c r="E76" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76">
-        <v>6</v>
+      <c r="F76" t="s">
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>507759</v>
@@ -3941,22 +3959,22 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
         <v>29</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>30</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>31</v>
       </c>
-      <c r="E77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77">
-        <v>6</v>
+      <c r="F77" t="s">
+        <v>173</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
@@ -3979,31 +3997,31 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
         <v>29</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>30</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>31</v>
       </c>
-      <c r="E78" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78">
-        <v>6</v>
+      <c r="F78" t="s">
+        <v>173</v>
       </c>
       <c r="G78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s">
         <v>43</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
+        <v>178</v>
+      </c>
+      <c r="J78" t="s">
         <v>44</v>
-      </c>
-      <c r="I78" t="s">
-        <v>172</v>
-      </c>
-      <c r="J78" t="s">
-        <v>45</v>
       </c>
       <c r="K78">
         <v>1092652</v>
@@ -4017,22 +4035,22 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
         <v>29</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>30</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>31</v>
       </c>
-      <c r="E79" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79">
-        <v>6</v>
+      <c r="F79" t="s">
+        <v>173</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H79" t="s">
         <v>21</v>
@@ -4066,17 +4084,17 @@
       <c r="E80" t="s">
         <v>16</v>
       </c>
-      <c r="F80">
-        <v>7</v>
+      <c r="F80" t="s">
+        <v>174</v>
       </c>
       <c r="G80" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J80" t="s">
         <v>19</v>
@@ -4104,11 +4122,11 @@
       <c r="E81" t="s">
         <v>16</v>
       </c>
-      <c r="F81">
-        <v>7</v>
+      <c r="F81" t="s">
+        <v>174</v>
       </c>
       <c r="G81" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
         <v>21</v>
@@ -4142,17 +4160,17 @@
       <c r="E82" t="s">
         <v>16</v>
       </c>
-      <c r="F82">
-        <v>7</v>
+      <c r="F82" t="s">
+        <v>174</v>
       </c>
       <c r="G82" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J82" t="s">
         <v>19</v>
@@ -4180,11 +4198,11 @@
       <c r="E83" t="s">
         <v>16</v>
       </c>
-      <c r="F83">
-        <v>7</v>
+      <c r="F83" t="s">
+        <v>174</v>
       </c>
       <c r="G83" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
@@ -4218,17 +4236,17 @@
       <c r="E84" t="s">
         <v>16</v>
       </c>
-      <c r="F84">
-        <v>7</v>
+      <c r="F84" t="s">
+        <v>174</v>
       </c>
       <c r="G84" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I84" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J84" t="s">
         <v>19</v>
@@ -4256,20 +4274,20 @@
       <c r="E85" t="s">
         <v>16</v>
       </c>
-      <c r="F85">
-        <v>7</v>
+      <c r="F85" t="s">
+        <v>174</v>
       </c>
       <c r="G85" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" t="s">
         <v>27</v>
       </c>
-      <c r="I85" t="s">
-        <v>28</v>
-      </c>
       <c r="J85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K85">
         <v>3601</v>
@@ -4283,31 +4301,31 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
         <v>29</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>30</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>31</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>174</v>
+      </c>
+      <c r="G86" t="s">
         <v>32</v>
       </c>
-      <c r="F86">
-        <v>7</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>33</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>34</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>35</v>
-      </c>
-      <c r="J86" t="s">
-        <v>36</v>
       </c>
       <c r="K86">
         <v>1285956</v>
@@ -4321,31 +4339,31 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
         <v>29</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>30</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>31</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87" t="s">
         <v>32</v>
       </c>
-      <c r="F87">
-        <v>7</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
       <c r="H87" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" t="s">
         <v>49</v>
       </c>
-      <c r="I87" t="s">
-        <v>50</v>
-      </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>620244</v>
@@ -4359,31 +4377,31 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
         <v>29</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>30</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>31</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" t="s">
         <v>32</v>
       </c>
-      <c r="F88">
-        <v>7</v>
-      </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
       <c r="H88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" t="s">
         <v>27</v>
       </c>
-      <c r="I88" t="s">
-        <v>28</v>
-      </c>
       <c r="J88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K88">
         <v>8641</v>
@@ -4397,31 +4415,31 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
         <v>29</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>30</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>31</v>
       </c>
-      <c r="E89" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89">
-        <v>7</v>
+      <c r="F89" t="s">
+        <v>174</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89" t="s">
+        <v>50</v>
+      </c>
+      <c r="I89" t="s">
         <v>51</v>
       </c>
-      <c r="I89" t="s">
-        <v>52</v>
-      </c>
       <c r="J89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K89">
         <v>66358</v>
@@ -4435,31 +4453,31 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
         <v>29</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>30</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>31</v>
       </c>
-      <c r="E90" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90">
-        <v>7</v>
+      <c r="F90" t="s">
+        <v>174</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H90" t="s">
+        <v>50</v>
+      </c>
+      <c r="I90" t="s">
         <v>51</v>
       </c>
-      <c r="I90" t="s">
-        <v>52</v>
-      </c>
       <c r="J90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K90">
         <v>57373</v>
@@ -4473,31 +4491,31 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
         <v>29</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>30</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>31</v>
       </c>
-      <c r="E91" t="s">
-        <v>32</v>
-      </c>
-      <c r="F91">
-        <v>7</v>
+      <c r="F91" t="s">
+        <v>174</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91" t="s">
+        <v>50</v>
+      </c>
+      <c r="I91" t="s">
         <v>51</v>
       </c>
-      <c r="I91" t="s">
-        <v>52</v>
-      </c>
       <c r="J91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K91">
         <v>94307</v>
@@ -4511,31 +4529,31 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
         <v>29</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>30</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>31</v>
       </c>
-      <c r="E92" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92">
-        <v>7</v>
+      <c r="F92" t="s">
+        <v>174</v>
       </c>
       <c r="G92" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s">
         <v>43</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
+        <v>178</v>
+      </c>
+      <c r="J92" t="s">
         <v>44</v>
-      </c>
-      <c r="I92" t="s">
-        <v>172</v>
-      </c>
-      <c r="J92" t="s">
-        <v>45</v>
       </c>
       <c r="K92">
         <v>1092652</v>
@@ -4549,22 +4567,22 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
         <v>29</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>30</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>31</v>
       </c>
-      <c r="E93" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93">
-        <v>7</v>
+      <c r="F93" t="s">
+        <v>174</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H93" t="s">
         <v>21</v>
@@ -4598,17 +4616,17 @@
       <c r="E94" t="s">
         <v>16</v>
       </c>
-      <c r="F94">
-        <v>8</v>
+      <c r="F94" t="s">
+        <v>175</v>
       </c>
       <c r="G94" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
         <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
@@ -4636,11 +4654,11 @@
       <c r="E95" t="s">
         <v>16</v>
       </c>
-      <c r="F95">
-        <v>8</v>
+      <c r="F95" t="s">
+        <v>175</v>
       </c>
       <c r="G95" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
         <v>21</v>
@@ -4674,17 +4692,17 @@
       <c r="E96" t="s">
         <v>16</v>
       </c>
-      <c r="F96">
-        <v>8</v>
+      <c r="F96" t="s">
+        <v>175</v>
       </c>
       <c r="G96" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H96" t="s">
         <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -4712,11 +4730,11 @@
       <c r="E97" t="s">
         <v>16</v>
       </c>
-      <c r="F97">
-        <v>8</v>
+      <c r="F97" t="s">
+        <v>175</v>
       </c>
       <c r="G97" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H97" t="s">
         <v>21</v>
@@ -4750,17 +4768,17 @@
       <c r="E98" t="s">
         <v>16</v>
       </c>
-      <c r="F98">
-        <v>8</v>
+      <c r="F98" t="s">
+        <v>175</v>
       </c>
       <c r="G98" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H98" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
@@ -4788,20 +4806,20 @@
       <c r="E99" t="s">
         <v>16</v>
       </c>
-      <c r="F99">
-        <v>8</v>
+      <c r="F99" t="s">
+        <v>175</v>
       </c>
       <c r="G99" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H99" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" t="s">
         <v>27</v>
       </c>
-      <c r="I99" t="s">
-        <v>28</v>
-      </c>
       <c r="J99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K99">
         <v>3601</v>
@@ -4815,31 +4833,31 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
         <v>29</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>30</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>31</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G100" t="s">
         <v>32</v>
       </c>
-      <c r="F100">
-        <v>8</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>33</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>34</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>35</v>
-      </c>
-      <c r="J100" t="s">
-        <v>36</v>
       </c>
       <c r="K100">
         <v>1607445</v>
@@ -4853,31 +4871,31 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s">
         <v>29</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>30</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>31</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>175</v>
+      </c>
+      <c r="G101" t="s">
         <v>32</v>
       </c>
-      <c r="F101">
-        <v>8</v>
-      </c>
-      <c r="G101" t="s">
-        <v>33</v>
-      </c>
       <c r="H101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" t="s">
         <v>49</v>
       </c>
-      <c r="I101" t="s">
-        <v>50</v>
-      </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>775305</v>
@@ -4891,31 +4909,31 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
         <v>29</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>30</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>31</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
+        <v>175</v>
+      </c>
+      <c r="G102" t="s">
         <v>32</v>
       </c>
-      <c r="F102">
-        <v>8</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
       <c r="H102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" t="s">
         <v>27</v>
       </c>
-      <c r="I102" t="s">
-        <v>28</v>
-      </c>
       <c r="J102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K102">
         <v>10802</v>
@@ -4929,31 +4947,31 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" t="s">
         <v>29</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>30</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>31</v>
       </c>
-      <c r="E103" t="s">
-        <v>32</v>
-      </c>
-      <c r="F103">
-        <v>8</v>
+      <c r="F103" t="s">
+        <v>175</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103" t="s">
+        <v>50</v>
+      </c>
+      <c r="I103" t="s">
         <v>51</v>
       </c>
-      <c r="I103" t="s">
-        <v>52</v>
-      </c>
       <c r="J103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K103">
         <v>109396</v>
@@ -4967,31 +4985,31 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
         <v>29</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>30</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>31</v>
       </c>
-      <c r="E104" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104">
-        <v>8</v>
+      <c r="F104" t="s">
+        <v>175</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H104" t="s">
+        <v>50</v>
+      </c>
+      <c r="I104" t="s">
         <v>51</v>
       </c>
-      <c r="I104" t="s">
-        <v>52</v>
-      </c>
       <c r="J104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K104">
         <v>76129</v>
@@ -5005,31 +5023,31 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s">
         <v>29</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>30</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>31</v>
       </c>
-      <c r="E105" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105">
-        <v>8</v>
+      <c r="F105" t="s">
+        <v>175</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H105" t="s">
+        <v>50</v>
+      </c>
+      <c r="I105" t="s">
         <v>51</v>
       </c>
-      <c r="I105" t="s">
-        <v>52</v>
-      </c>
       <c r="J105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K105">
         <v>107537</v>
@@ -5043,31 +5061,31 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
         <v>29</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>30</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>31</v>
       </c>
-      <c r="E106" t="s">
-        <v>32</v>
-      </c>
-      <c r="F106">
-        <v>8</v>
+      <c r="F106" t="s">
+        <v>175</v>
       </c>
       <c r="G106" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" t="s">
         <v>43</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
+        <v>178</v>
+      </c>
+      <c r="J106" t="s">
         <v>44</v>
-      </c>
-      <c r="I106" t="s">
-        <v>172</v>
-      </c>
-      <c r="J106" t="s">
-        <v>45</v>
       </c>
       <c r="K106">
         <v>1092652</v>
@@ -5081,22 +5099,22 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s">
         <v>29</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>30</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>31</v>
       </c>
-      <c r="E107" t="s">
-        <v>32</v>
-      </c>
-      <c r="F107">
-        <v>8</v>
+      <c r="F107" t="s">
+        <v>175</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H107" t="s">
         <v>21</v>
@@ -5130,17 +5148,17 @@
       <c r="E108" t="s">
         <v>16</v>
       </c>
-      <c r="F108">
-        <v>9</v>
+      <c r="F108" t="s">
+        <v>176</v>
       </c>
       <c r="G108" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
       </c>
       <c r="I108" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
@@ -5168,11 +5186,11 @@
       <c r="E109" t="s">
         <v>16</v>
       </c>
-      <c r="F109">
-        <v>9</v>
+      <c r="F109" t="s">
+        <v>176</v>
       </c>
       <c r="G109" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H109" t="s">
         <v>21</v>
@@ -5206,17 +5224,17 @@
       <c r="E110" t="s">
         <v>16</v>
       </c>
-      <c r="F110">
-        <v>9</v>
+      <c r="F110" t="s">
+        <v>176</v>
       </c>
       <c r="G110" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
       </c>
       <c r="I110" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -5244,11 +5262,11 @@
       <c r="E111" t="s">
         <v>16</v>
       </c>
-      <c r="F111">
-        <v>9</v>
+      <c r="F111" t="s">
+        <v>176</v>
       </c>
       <c r="G111" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H111" t="s">
         <v>21</v>
@@ -5282,17 +5300,17 @@
       <c r="E112" t="s">
         <v>16</v>
       </c>
-      <c r="F112">
-        <v>9</v>
+      <c r="F112" t="s">
+        <v>176</v>
       </c>
       <c r="G112" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H112" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I112" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J112" t="s">
         <v>19</v>
@@ -5320,20 +5338,20 @@
       <c r="E113" t="s">
         <v>16</v>
       </c>
-      <c r="F113">
-        <v>9</v>
+      <c r="F113" t="s">
+        <v>176</v>
       </c>
       <c r="G113" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" t="s">
         <v>27</v>
       </c>
-      <c r="I113" t="s">
-        <v>28</v>
-      </c>
       <c r="J113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K113">
         <v>3601</v>
@@ -5347,31 +5365,31 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
         <v>29</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>30</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>31</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
+        <v>176</v>
+      </c>
+      <c r="G114" t="s">
         <v>32</v>
       </c>
-      <c r="F114">
-        <v>9</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>33</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>34</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>35</v>
-      </c>
-      <c r="J114" t="s">
-        <v>36</v>
       </c>
       <c r="K114">
         <v>1607445</v>
@@ -5385,31 +5403,31 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s">
         <v>29</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>30</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>31</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
+        <v>176</v>
+      </c>
+      <c r="G115" t="s">
         <v>32</v>
       </c>
-      <c r="F115">
-        <v>9</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
       <c r="H115" t="s">
+        <v>48</v>
+      </c>
+      <c r="I115" t="s">
         <v>49</v>
       </c>
-      <c r="I115" t="s">
-        <v>50</v>
-      </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>775305</v>
@@ -5423,31 +5441,31 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
         <v>29</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>30</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>31</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
+        <v>176</v>
+      </c>
+      <c r="G116" t="s">
         <v>32</v>
       </c>
-      <c r="F116">
-        <v>9</v>
-      </c>
-      <c r="G116" t="s">
-        <v>33</v>
-      </c>
       <c r="H116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" t="s">
         <v>27</v>
       </c>
-      <c r="I116" t="s">
-        <v>28</v>
-      </c>
       <c r="J116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K116">
         <v>10802</v>
@@ -5461,31 +5479,31 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
         <v>29</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>30</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>31</v>
       </c>
-      <c r="E117" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117">
-        <v>9</v>
+      <c r="F117" t="s">
+        <v>176</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H117" t="s">
+        <v>50</v>
+      </c>
+      <c r="I117" t="s">
         <v>51</v>
       </c>
-      <c r="I117" t="s">
-        <v>52</v>
-      </c>
       <c r="J117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K117">
         <v>37922</v>
@@ -5499,31 +5517,31 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
         <v>29</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>30</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>31</v>
       </c>
-      <c r="E118" t="s">
-        <v>32</v>
-      </c>
-      <c r="F118">
-        <v>9</v>
+      <c r="F118" t="s">
+        <v>176</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H118" t="s">
+        <v>50</v>
+      </c>
+      <c r="I118" t="s">
         <v>51</v>
       </c>
-      <c r="I118" t="s">
-        <v>52</v>
-      </c>
       <c r="J118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K118">
         <v>31185</v>
@@ -5537,31 +5555,31 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
         <v>29</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>30</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>31</v>
       </c>
-      <c r="E119" t="s">
-        <v>32</v>
-      </c>
-      <c r="F119">
-        <v>9</v>
+      <c r="F119" t="s">
+        <v>176</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119" t="s">
+        <v>50</v>
+      </c>
+      <c r="I119" t="s">
         <v>51</v>
       </c>
-      <c r="I119" t="s">
-        <v>52</v>
-      </c>
       <c r="J119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K119">
         <v>71691</v>
@@ -5575,31 +5593,31 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
         <v>29</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>30</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>31</v>
       </c>
-      <c r="E120" t="s">
-        <v>32</v>
-      </c>
-      <c r="F120">
-        <v>9</v>
+      <c r="F120" t="s">
+        <v>176</v>
       </c>
       <c r="G120" t="s">
+        <v>42</v>
+      </c>
+      <c r="H120" t="s">
         <v>43</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
+        <v>178</v>
+      </c>
+      <c r="J120" t="s">
         <v>44</v>
-      </c>
-      <c r="I120" t="s">
-        <v>172</v>
-      </c>
-      <c r="J120" t="s">
-        <v>45</v>
       </c>
       <c r="K120">
         <v>1092652</v>
@@ -5613,22 +5631,22 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" t="s">
         <v>29</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>30</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>31</v>
       </c>
-      <c r="E121" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121">
-        <v>9</v>
+      <c r="F121" t="s">
+        <v>176</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H121" t="s">
         <v>21</v>
@@ -5714,37 +5732,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F2" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>61</v>
-      </c>
       <c r="J2" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="27">
         <v>479</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75">
@@ -5752,37 +5770,37 @@
         <v>12</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="K3" s="27">
         <v>10981</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75">
@@ -5790,37 +5808,37 @@
         <v>12</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F4" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K4" s="27">
         <v>509</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.75">
@@ -5828,37 +5846,37 @@
         <v>12</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K5" s="27">
         <v>14975</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="12.75">
@@ -5866,37 +5884,37 @@
         <v>12</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F6" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K6" s="27">
         <v>30644</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75">
@@ -5904,37 +5922,37 @@
         <v>12</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="K7" s="27">
         <v>31445</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75">
@@ -5942,37 +5960,37 @@
         <v>12</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="K8" s="27">
         <v>8366</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75">
@@ -5980,37 +5998,37 @@
         <v>12</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K9" s="27">
         <v>14975</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75">
@@ -6018,37 +6036,37 @@
         <v>12</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F10" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="27">
         <v>661</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75">
@@ -6056,37 +6074,37 @@
         <v>12</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="E11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11" s="27">
         <v>11388</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75">
@@ -6094,37 +6112,37 @@
         <v>12</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="E12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F12" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="27">
         <v>4039</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -6132,37 +6150,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="E13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K13" s="27">
         <v>30644</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -6170,37 +6188,37 @@
         <v>12</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F14" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="27">
         <v>323</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -6208,37 +6226,37 @@
         <v>12</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="E15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F15" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="J15" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="K15" s="27">
         <v>6719</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -6246,37 +6264,37 @@
         <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F16" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="K16" s="27">
         <v>30261</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75">
@@ -6284,37 +6302,37 @@
         <v>12</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="E17" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F17" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="K17" s="27">
         <v>96</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75">
@@ -6322,37 +6340,37 @@
         <v>12</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="E18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F18" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K18" s="27">
         <v>509</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12.75">
@@ -6360,37 +6378,37 @@
         <v>12</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F19" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="K19" s="27">
         <v>10806</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75">
@@ -6398,37 +6416,37 @@
         <v>12</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="E20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F20" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K20" s="27">
         <v>509</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.75">
@@ -6436,37 +6454,37 @@
         <v>12</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K21" s="27">
         <v>14975</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.75">
@@ -6474,37 +6492,37 @@
         <v>12</v>
       </c>
       <c r="B22" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F22" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K22" s="27">
         <v>10917</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12.75">
@@ -6512,37 +6530,37 @@
         <v>12</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F23" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K23" s="27">
         <v>30644</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12.75">
@@ -6550,37 +6568,37 @@
         <v>12</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="25" t="s">
+      <c r="E24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F24" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="K24" s="27">
         <v>360492</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.75">
@@ -6588,37 +6606,37 @@
         <v>12</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="25" t="s">
+      <c r="E25" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F25" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="J25" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="K25" s="27">
         <v>12117</v>
       </c>
       <c r="L25" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12.75">
@@ -6626,37 +6644,37 @@
         <v>12</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="E26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="K26" s="27">
         <v>9412</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="12.75">
@@ -6664,37 +6682,37 @@
         <v>12</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F27" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H27" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="J27" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="K27" s="27">
         <v>6719</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12.75">
@@ -6702,37 +6720,37 @@
         <v>12</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="25" t="s">
+      <c r="E28" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F28" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="K28" s="27">
         <v>30261</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="12.75">
@@ -6740,37 +6758,37 @@
         <v>12</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="25" t="s">
+      <c r="E29" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F29" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K29" s="27">
         <v>14975</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="12.75">
@@ -6778,37 +6796,37 @@
         <v>12</v>
       </c>
       <c r="B30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="25" t="s">
+      <c r="E30" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F30" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K30" s="27">
         <v>509</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="12.75">
@@ -6816,37 +6834,37 @@
         <v>12</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="25" t="s">
+      <c r="E31" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F31" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K31" s="27">
         <v>30644</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="12.75">
@@ -6854,37 +6872,37 @@
         <v>12</v>
       </c>
       <c r="B32" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="25" t="s">
+      <c r="E32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F32" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K32" s="27">
         <v>57846</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="12.75">
@@ -6892,37 +6910,37 @@
         <v>12</v>
       </c>
       <c r="B33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="25" t="s">
+      <c r="E33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F33" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K33" s="27">
         <v>14975</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.75">
@@ -6930,37 +6948,37 @@
         <v>12</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="E34" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F34" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I34" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="K34" s="27">
         <v>624440</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.75">
@@ -6968,37 +6986,37 @@
         <v>12</v>
       </c>
       <c r="B35" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="25" t="s">
+      <c r="E35" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F35" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I35" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="K35" s="27">
         <v>22658</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.75">
@@ -7006,37 +7024,37 @@
         <v>12</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="25" t="s">
+      <c r="E36" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F36" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H36" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="J36" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="K36" s="27">
         <v>12117</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="12.75">
@@ -7044,37 +7062,37 @@
         <v>12</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="25" t="s">
+      <c r="E37" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F37" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="K37" s="27">
         <v>9412</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75">
@@ -7082,37 +7100,37 @@
         <v>12</v>
       </c>
       <c r="B38" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="25" t="s">
+      <c r="E38" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F38" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="J38" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="K38" s="27">
         <v>6719</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.75">
@@ -7120,37 +7138,37 @@
         <v>12</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="25" t="s">
+      <c r="E39" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F39" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I39" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="K39" s="27">
         <v>30261</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="12.75">
@@ -7158,37 +7176,37 @@
         <v>12</v>
       </c>
       <c r="B40" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="25" t="s">
+      <c r="E40" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F40" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K40" s="27">
         <v>509</v>
       </c>
       <c r="L40" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12.75">
@@ -7196,37 +7214,37 @@
         <v>12</v>
       </c>
       <c r="B41" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="25" t="s">
+      <c r="E41" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F41" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K41" s="27">
         <v>30644</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="12.75">
@@ -7234,37 +7252,37 @@
         <v>12</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="25" t="s">
+      <c r="E42" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F42" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K42" s="27">
         <v>14975</v>
       </c>
       <c r="L42" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="12.75">
@@ -7272,37 +7290,37 @@
         <v>12</v>
       </c>
       <c r="B43" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="25" t="s">
+      <c r="E43" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F43" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H43" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="J43" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K43" s="27">
         <v>29658</v>
       </c>
       <c r="L43" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="12.75">
@@ -7310,37 +7328,37 @@
         <v>12</v>
       </c>
       <c r="B44" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="25" t="s">
+      <c r="E44" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F44" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H44" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="K44" s="27">
         <v>753</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75">
@@ -7348,37 +7366,37 @@
         <v>12</v>
       </c>
       <c r="B45" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="25" t="s">
+      <c r="E45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F45" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I45" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K45" s="27">
         <v>509</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="12.75">
@@ -7386,37 +7404,37 @@
         <v>12</v>
       </c>
       <c r="B46" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="25" t="s">
+      <c r="E46" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F46" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K46" s="27">
         <v>30644</v>
       </c>
       <c r="L46" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="12.75">
@@ -7424,37 +7442,37 @@
         <v>12</v>
       </c>
       <c r="B47" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="25" t="s">
+      <c r="E47" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F47" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K47" s="27">
         <v>2077</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="12.75">
@@ -7462,37 +7480,37 @@
         <v>12</v>
       </c>
       <c r="B48" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="25" t="s">
+      <c r="E48" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="K48" s="27">
         <v>1564</v>
       </c>
       <c r="L48" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="12.75">
@@ -7500,37 +7518,37 @@
         <v>12</v>
       </c>
       <c r="B49" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="25" t="s">
+      <c r="E49" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F49" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J49" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I49" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K49" s="27">
         <v>14975</v>
       </c>
       <c r="L49" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="12.75">
@@ -7538,37 +7556,37 @@
         <v>12</v>
       </c>
       <c r="B50" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="25" t="s">
+      <c r="E50" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F50" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="J50" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>96</v>
       </c>
       <c r="K50" s="27">
         <v>3969</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="12.75">
@@ -7576,37 +7594,37 @@
         <v>12</v>
       </c>
       <c r="B51" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="25" t="s">
+      <c r="E51" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F51" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I51" s="41" t="s">
+      <c r="J51" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="K51" s="27">
         <v>6719</v>
       </c>
       <c r="L51" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="12.75">
@@ -7614,37 +7632,37 @@
         <v>12</v>
       </c>
       <c r="B52" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="25" t="s">
+      <c r="E52" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F52" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I52" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="K52" s="27">
         <v>30261</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="12.75">
@@ -7652,37 +7670,37 @@
         <v>12</v>
       </c>
       <c r="B53" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="25" t="s">
+      <c r="E53" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F53" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I53" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K53" s="27">
         <v>509</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.75">
@@ -7690,37 +7708,37 @@
         <v>12</v>
       </c>
       <c r="B54" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="25" t="s">
+      <c r="E54" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F54" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K54" s="27">
         <v>30644</v>
       </c>
       <c r="L54" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="12.75">
@@ -7728,37 +7746,37 @@
         <v>12</v>
       </c>
       <c r="B55" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="25" t="s">
+      <c r="E55" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F55" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H55" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="K55" s="27">
         <v>10632</v>
       </c>
       <c r="L55" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="12.75">
@@ -7766,37 +7784,37 @@
         <v>12</v>
       </c>
       <c r="B56" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="25" t="s">
+      <c r="E56" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F56" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H56" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K56" s="27">
         <v>14975</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="12.75">
@@ -7804,37 +7822,37 @@
         <v>12</v>
       </c>
       <c r="B57" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="25" t="s">
+      <c r="E57" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F57" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" s="27">
         <v>97036</v>
       </c>
       <c r="L57" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="12.75">
@@ -7842,37 +7860,37 @@
         <v>12</v>
       </c>
       <c r="B58" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="25" t="s">
+      <c r="E58" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F58" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H58" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I58" s="25" t="s">
+      <c r="J58" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="K58" s="27">
         <v>6719</v>
       </c>
       <c r="L58" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="12.75">
@@ -7880,37 +7898,37 @@
         <v>12</v>
       </c>
       <c r="B59" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="25" t="s">
+      <c r="E59" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F59" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I59" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="K59" s="27">
         <v>30261</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="12.75">
@@ -7918,37 +7936,37 @@
         <v>12</v>
       </c>
       <c r="B60" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="25" t="s">
+      <c r="E60" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F60" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I60" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K60" s="27">
         <v>509</v>
       </c>
       <c r="L60" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="12.75">
@@ -7956,37 +7974,37 @@
         <v>12</v>
       </c>
       <c r="B61" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="25" t="s">
+      <c r="E61" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F61" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I61" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K61" s="27">
         <v>170263</v>
       </c>
       <c r="L61" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="12.75">
@@ -7994,37 +8012,37 @@
         <v>12</v>
       </c>
       <c r="B62" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="25" t="s">
+      <c r="E62" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F62" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H62" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K62" s="27">
         <v>30644</v>
       </c>
       <c r="L62" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="12.75">
@@ -8032,37 +8050,37 @@
         <v>12</v>
       </c>
       <c r="B63" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="25" t="s">
+      <c r="E63" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F63" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H63" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="J63" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I63" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="K63" s="27">
         <v>8366</v>
       </c>
       <c r="L63" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="12.75">
@@ -8070,37 +8088,37 @@
         <v>12</v>
       </c>
       <c r="B64" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="25" t="s">
+      <c r="E64" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F64" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H64" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J64" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I64" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K64" s="27">
         <v>14975</v>
       </c>
       <c r="L64" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="12.75">
@@ -8108,37 +8126,37 @@
         <v>12</v>
       </c>
       <c r="B65" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="25" t="s">
+      <c r="E65" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F65" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K65" s="27">
         <v>425</v>
       </c>
       <c r="L65" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="12.75">
@@ -8146,37 +8164,37 @@
         <v>12</v>
       </c>
       <c r="B66" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="25" t="s">
+      <c r="E66" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F66" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K66" s="27">
         <v>74168</v>
       </c>
       <c r="L66" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="12.75">
@@ -8184,37 +8202,37 @@
         <v>12</v>
       </c>
       <c r="B67" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="25" t="s">
+      <c r="E67" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F67" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I67" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="J67" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="K67" s="27">
         <v>11329</v>
       </c>
       <c r="L67" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="12.75">
@@ -8222,37 +8240,37 @@
         <v>12</v>
       </c>
       <c r="B68" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="25" t="s">
+      <c r="E68" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F68" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I68" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J68" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K68" s="27">
         <v>16759</v>
       </c>
       <c r="L68" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="12.75">
@@ -8260,37 +8278,37 @@
         <v>12</v>
       </c>
       <c r="B69" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="25" t="s">
+      <c r="E69" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F69" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I69" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K69" s="27">
         <v>4039</v>
       </c>
       <c r="L69" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="12.75">
@@ -8298,37 +8316,37 @@
         <v>12</v>
       </c>
       <c r="B70" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="25" t="s">
+      <c r="E70" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F70" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H70" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="25" t="s">
+      <c r="J70" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="J70" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="K70" s="27">
         <v>6719</v>
       </c>
       <c r="L70" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="12.75">
@@ -8336,37 +8354,37 @@
         <v>12</v>
       </c>
       <c r="B71" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="25" t="s">
+      <c r="E71" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F71" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I71" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J71" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="J71" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="K71" s="27">
         <v>30261</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="12.75">
@@ -8374,37 +8392,37 @@
         <v>12</v>
       </c>
       <c r="B72" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="25" t="s">
+      <c r="E72" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F72" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I72" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J72" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K72" s="27">
         <v>509</v>
       </c>
       <c r="L72" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="12.75">
@@ -8412,37 +8430,37 @@
         <v>12</v>
       </c>
       <c r="B73" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="25" t="s">
+      <c r="E73" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F73" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H73" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K73" s="27">
         <v>30644</v>
       </c>
       <c r="L73" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="12.75">
@@ -8450,37 +8468,37 @@
         <v>12</v>
       </c>
       <c r="B74" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="25" t="s">
+      <c r="E74" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F74" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H74" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J74" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="I74" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="K74" s="27">
         <v>96</v>
       </c>
       <c r="L74" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="12.75">
@@ -8488,37 +8506,37 @@
         <v>12</v>
       </c>
       <c r="B75" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="25" t="s">
+      <c r="E75" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E75" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F75" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H75" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="J75" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="I75" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>63</v>
       </c>
       <c r="K75" s="27">
         <v>8366</v>
       </c>
       <c r="L75" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="12.75">
@@ -8526,37 +8544,37 @@
         <v>12</v>
       </c>
       <c r="B76" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="25" t="s">
+      <c r="E76" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F76" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H76" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I76" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J76" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="I76" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J76" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="K76" s="27">
         <v>14975</v>
       </c>
       <c r="L76" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="12.75">
@@ -8564,37 +8582,37 @@
         <v>12</v>
       </c>
       <c r="B77" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="25" t="s">
+      <c r="E77" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E77" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F77" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K77" s="27">
         <v>25945</v>
       </c>
       <c r="L77" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="12.75">
@@ -8602,37 +8620,37 @@
         <v>12</v>
       </c>
       <c r="B78" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="25" t="s">
+      <c r="E78" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F78" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I78" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J78" s="25" t="s">
         <v>104</v>
-      </c>
-      <c r="J78" s="25" t="s">
-        <v>105</v>
       </c>
       <c r="K78" s="27">
         <v>208</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="12.75">
@@ -8640,37 +8658,37 @@
         <v>12</v>
       </c>
       <c r="B79" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="25" t="s">
+      <c r="E79" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F79" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I79" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J79" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="K79" s="27">
         <v>2717</v>
       </c>
       <c r="L79" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="12.75">
@@ -8678,37 +8696,37 @@
         <v>12</v>
       </c>
       <c r="B80" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="25" t="s">
+      <c r="E80" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F80" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K80" s="27">
         <v>4039</v>
       </c>
       <c r="L80" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="12.75">
@@ -8716,37 +8734,37 @@
         <v>12</v>
       </c>
       <c r="B81" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="25" t="s">
+      <c r="E81" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F81" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H81" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I81" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I81" s="25" t="s">
+      <c r="J81" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="K81" s="27">
         <v>6719</v>
       </c>
       <c r="L81" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="12.75">
@@ -8754,37 +8772,37 @@
         <v>12</v>
       </c>
       <c r="B82" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="25" t="s">
+      <c r="E82" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F82" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I82" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J82" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="J82" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="K82" s="27">
         <v>30261</v>
       </c>
       <c r="L82" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="12.75">
@@ -8792,37 +8810,37 @@
         <v>12</v>
       </c>
       <c r="B83" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="25" t="s">
+      <c r="E83" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F83" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H83" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="I83" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="K83" s="27">
         <v>30644</v>
       </c>
       <c r="L83" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="12.75">
@@ -8830,37 +8848,37 @@
         <v>12</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" s="25" t="s">
+      <c r="E84" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F84" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I84" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="K84" s="27">
         <v>509</v>
       </c>
       <c r="L84" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="12.75">
@@ -8868,37 +8886,37 @@
         <v>12</v>
       </c>
       <c r="B85" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="25" t="s">
+      <c r="E85" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="F85" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H85" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I85" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J85" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="I85" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="K85" s="27">
         <v>96</v>
       </c>
       <c r="L85" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="12.75">
@@ -11678,37 +11696,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>112</v>
-      </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K2" s="27">
         <v>35343</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75">
@@ -11716,37 +11734,37 @@
         <v>12</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>111</v>
-      </c>
       <c r="F3" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K3" s="27">
         <v>54275</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75">
@@ -14477,8 +14495,8 @@
   </sheetPr>
   <dimension ref="A1:L903"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14529,31 +14547,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="K2" s="27">
         <v>10829</v>
@@ -14564,31 +14582,31 @@
         <v>12</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>119</v>
-      </c>
       <c r="H3" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K3" s="27">
         <v>9755</v>
